--- a/protected/data/bangbaogia_v2.9.xlsx
+++ b/protected/data/bangbaogia_v2.9.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TMA\Project\demo-shop\protected\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\HoaNguyen\freelance\demo\demo-shop\protected\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Báo giá" sheetId="3" r:id="rId3"/>
     <sheet name="Mã danh mục" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="550">
   <si>
     <t>BẢNG BÁO GIÁ VĂN PHÒNG PHẨM</t>
   </si>
@@ -160,6 +160,144 @@
     <t>Nước khoáng Vĩnh Hảo 500ml</t>
   </si>
   <si>
+    <t>TÊN</t>
+  </si>
+  <si>
+    <t>PARENT ID</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>DANH MỤC</t>
+  </si>
+  <si>
+    <t>MÃ DANH MỤC</t>
+  </si>
+  <si>
+    <t>NƯỚC SUỐI ĐÓNG CHAI</t>
+  </si>
+  <si>
+    <t>GIẤY IN - GIẤY PHOTO</t>
+  </si>
+  <si>
+    <t>BÌA ĐÓNG TẬP - GIẤY CÁC LOẠI</t>
+  </si>
+  <si>
+    <t>DẤU HỘP - MỰC DẤU - BẢNG MICA</t>
+  </si>
+  <si>
+    <t>DỤNG CỤ VĂN PHÒNG</t>
+  </si>
+  <si>
+    <t>BÌA HỒ SƠ CÁC LOẠI</t>
+  </si>
+  <si>
+    <t>BÚT CÁC LOẠI</t>
+  </si>
+  <si>
+    <t>MỰC BÚT LÔNG</t>
+  </si>
+  <si>
+    <t>TẬP VIẾT - SỔ TAY</t>
+  </si>
+  <si>
+    <t>VĂN PHÒNG PHẨM KHÁC</t>
+  </si>
+  <si>
+    <t>LINH KIỆN - PHỤ KIỆN MÁY TÍNH</t>
+  </si>
+  <si>
+    <t>MỰC MÁY IN - MÁY PHOTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MÁY CHẤM CÔNG - NHỰA ÉP </t>
+  </si>
+  <si>
+    <t>BẢO HỘ LAO ĐỘNG</t>
+  </si>
+  <si>
+    <t>DỤNG CỤ VỆ SINH NHÀ XƯỞNG</t>
+  </si>
+  <si>
+    <t>TẠP PHẨM CÁC LOẠI</t>
+  </si>
+  <si>
+    <t>THỨC UỐNG VĂN PHÒNG</t>
+  </si>
+  <si>
+    <t>THIẾT BỊ ĐIỆN - CÂN ĐỒNG HỒ</t>
+  </si>
+  <si>
+    <t>PHỤ LIỆU MAY - PHỤ LIỆU SẢN XUẤT</t>
+  </si>
+  <si>
+    <t>NƯỚC BÌNH 20L</t>
+  </si>
+  <si>
+    <t>KỆ ĐỂ NƯỚC</t>
+  </si>
+  <si>
+    <t>NƯỚC SUỐI CHAI</t>
+  </si>
+  <si>
+    <t>GIẤY IN</t>
+  </si>
+  <si>
+    <t>GIẤY PHOTO</t>
+  </si>
+  <si>
+    <t>BÌA KIẾNG</t>
+  </si>
+  <si>
+    <t>GIẤY PHOTO MÀU (In Báo Giá - Hợp Đồng)</t>
+  </si>
+  <si>
+    <t>BÌA THÁI - BÌA INDO - BÌA VIỆT NAM</t>
+  </si>
+  <si>
+    <t>GIẤY CACBONLESS</t>
+  </si>
+  <si>
+    <t>GIẤY IN HÌNH - GIẤY IN MÀU</t>
+  </si>
+  <si>
+    <t>DECAL A4</t>
+  </si>
+  <si>
+    <t>GIẤY CAN PHIM - VẼ SƠ ĐỒ</t>
+  </si>
+  <si>
+    <t>NHÃN DÁN DECAL</t>
+  </si>
+  <si>
+    <t>GIẤY GHI CHÚ - NOTES SIGN HERE</t>
+  </si>
+  <si>
+    <t>GIẤY IN LIÊN TỤC LIÊN SƠN</t>
+  </si>
+  <si>
+    <t>GIẤY IN LIÊN TỤC THIÊN LONG</t>
+  </si>
+  <si>
+    <t>GIẤY THỦ CÔNG</t>
+  </si>
+  <si>
+    <t>GIẤY ROKY - GIẤY A0</t>
+  </si>
+  <si>
+    <t>GIẤY PERLURE</t>
+  </si>
+  <si>
+    <t>GIẤY FAX NHIỆT - GIẤY CUỘN TÍNH TIỀN</t>
+  </si>
+  <si>
+    <t>GIẤY THAN</t>
+  </si>
+  <si>
+    <t>GIẤY KẺ NGANG - GIẤY CARO - GIẤY KIỂM TRA</t>
+  </si>
+  <si>
     <t>GE70A5</t>
   </si>
   <si>
@@ -253,59 +391,1311 @@
     <t>Giấy COPY PAPER A4-70</t>
   </si>
   <si>
-    <t>TÊN</t>
-  </si>
-  <si>
-    <t>GIẤY IN</t>
-  </si>
-  <si>
-    <t>PARENT ID</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>THIẾT BỊ VĂN PHÒNG</t>
-  </si>
-  <si>
-    <t>GIẤY A4</t>
-  </si>
-  <si>
-    <t>GIẤY A5</t>
-  </si>
-  <si>
-    <t>MÁY CHẤM CÔNG</t>
-  </si>
-  <si>
-    <t>BÌNH NÓNG LẠNH</t>
-  </si>
-  <si>
-    <t>DANH MỤC</t>
-  </si>
-  <si>
-    <t>MÃ DANH MỤC</t>
-  </si>
-  <si>
-    <t>GIẤY FAX - GIẤY LIÊN TỤC</t>
-  </si>
-  <si>
-    <t>GIẤY FAX SAHARA</t>
+    <t>GBW70A4</t>
+  </si>
+  <si>
+    <t>Giấy BRIGHT WHITE A4-70</t>
+  </si>
+  <si>
+    <t>GIKP70A4</t>
+  </si>
+  <si>
+    <t>Giấy IK Plus A4-70</t>
+  </si>
+  <si>
+    <t>GPO70A4</t>
+  </si>
+  <si>
+    <t>Giấy Paper One A4-70</t>
+  </si>
+  <si>
+    <t>GI70A4</t>
+  </si>
+  <si>
+    <t>Giấy Idea A4-70</t>
+  </si>
+  <si>
+    <t>GST70A4</t>
+  </si>
+  <si>
+    <t>Giấy Smartist A4-70</t>
+  </si>
+  <si>
+    <t>GDA70A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giấy Double A A4-70gsm </t>
+  </si>
+  <si>
+    <t>GEP70A4</t>
+  </si>
+  <si>
+    <t>Giấy E Paper A4-70</t>
+  </si>
+  <si>
+    <t>GEP80A4</t>
+  </si>
+  <si>
+    <t>Giấy E Paper A4-80</t>
+  </si>
+  <si>
+    <t>GE80A4-1</t>
+  </si>
+  <si>
+    <t>Giấy Excell A4-80 (PTL) (1)</t>
+  </si>
+  <si>
+    <t>GE80A4-2</t>
+  </si>
+  <si>
+    <t>Giấy Excell A4-80 (PTL) (2)</t>
+  </si>
+  <si>
+    <t>GE80A4-PO</t>
+  </si>
+  <si>
+    <t>Giấy Excell A4-80 (PO)</t>
+  </si>
+  <si>
+    <t>GPO80A4</t>
+  </si>
+  <si>
+    <t>Giấy Paper One A4-80</t>
+  </si>
+  <si>
+    <t>GPO85A4</t>
+  </si>
+  <si>
+    <t>Giấy Paper One A4-85</t>
+  </si>
+  <si>
+    <t>GI80A4</t>
+  </si>
+  <si>
+    <t>Giấy Idea A4-80</t>
+  </si>
+  <si>
+    <t>GSP80A4</t>
+  </si>
+  <si>
+    <t>Giấy Supreme A4-80</t>
+  </si>
+  <si>
+    <t>GDB80A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giấy Double A A4-80gsm </t>
+  </si>
+  <si>
+    <t>GE70A3</t>
+  </si>
+  <si>
+    <t>Giấy EXCEL A3-70</t>
+  </si>
+  <si>
+    <t>GIKP70A3</t>
+  </si>
+  <si>
+    <t>Giấy IK PLUS A3-70</t>
+  </si>
+  <si>
+    <t>GSP70A3</t>
+  </si>
+  <si>
+    <t>Giấy Supreme A3-70</t>
+  </si>
+  <si>
+    <t>GPO70A3</t>
+  </si>
+  <si>
+    <t>Giấy Paper One A3-70</t>
+  </si>
+  <si>
+    <t>GDB70A3</t>
+  </si>
+  <si>
+    <t>Giấy Double A A3-70</t>
+  </si>
+  <si>
+    <t>GE80A3</t>
+  </si>
+  <si>
+    <t>Giấy EXCEL A3-80</t>
+  </si>
+  <si>
+    <t>GDB80A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giấy Double A A3-80gsm </t>
+  </si>
+  <si>
+    <t>GL70A3</t>
+  </si>
+  <si>
+    <t>Giấy Lucky A3-70</t>
+  </si>
+  <si>
+    <t>Giấy dày, đẹp</t>
+  </si>
+  <si>
+    <t>GL105A3</t>
+  </si>
+  <si>
+    <t>Giấy Lucky A3-105</t>
+  </si>
+  <si>
+    <t>GL125A3</t>
+  </si>
+  <si>
+    <t>Giấy Lucky A3-125</t>
+  </si>
+  <si>
+    <t>KHẮC DẤU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DẤU HỘP CÓ SẴN HỘP MỰC </t>
+  </si>
+  <si>
+    <t>HỘP STAMPAD ĐÓNG DẤU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPON DẤU </t>
+  </si>
+  <si>
+    <t>MỰC ĐÓNG DẤU</t>
+  </si>
+  <si>
+    <t>KỆ GÁC DẤU</t>
+  </si>
+  <si>
+    <t>BẢNG HIỆU MICA</t>
+  </si>
+  <si>
+    <t>BẢNG MICA ĐỂ BÀN</t>
+  </si>
+  <si>
+    <t>BÀN CẮT GIẤY</t>
+  </si>
+  <si>
+    <t>MIẾNG LÓT CẮT GIẤY</t>
+  </si>
+  <si>
+    <t>LỊCH ĐỂ BÀN</t>
+  </si>
+  <si>
+    <t>BAO THƯ - BAO LÌ XÌ</t>
+  </si>
+  <si>
+    <t>BAO HỒ SƠ GIẤY</t>
+  </si>
+  <si>
+    <t>HỒ DÁN - HỒ KHÔ - KEO 502 - KEO SỮA - RP7</t>
+  </si>
+  <si>
+    <t>MÁY TÍNH TAY</t>
+  </si>
+  <si>
+    <t>MÁY BẤM KIM - BẤM GỖ - THÁO KIM</t>
+  </si>
+  <si>
+    <t>PHỤ KIỆN MÁY BẤM KIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MÁY BẤM THÙNG CARTON - KIM ĐỒNG </t>
+  </si>
+  <si>
+    <t>BẤM LỖ</t>
+  </si>
+  <si>
+    <t>KIM BẤM - GHIM GIẤY</t>
+  </si>
+  <si>
+    <t>ĐINH GHIM BẢNG - GHIM TƯỜNG</t>
+  </si>
+  <si>
+    <t>CÂY GHIM GIẤY</t>
+  </si>
+  <si>
+    <t>CHẶN SÁCH</t>
+  </si>
+  <si>
+    <t>KẸP ACCO - KẸP BƯỚM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KẸP SẮT </t>
+  </si>
+  <si>
+    <t>MÁY ĐÓNG SÁCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GÁY LÒ XO NHỰA </t>
+  </si>
+  <si>
+    <t>VÒNG GIA CỐ BÌA CÒNG</t>
+  </si>
+  <si>
+    <t>ỐNG CẮM BÚT - ỐNG ĐỰNG GHIM</t>
+  </si>
+  <si>
+    <t>BÓP VIẾT - HỘP ĐỰNG VIẾT</t>
+  </si>
+  <si>
+    <t>HỘP ĐỰNG DANH THIẾP</t>
+  </si>
+  <si>
+    <t>THƯỚC ĐO</t>
+  </si>
+  <si>
+    <t>Giấy Fo A3-72 (PTL)</t>
+  </si>
+  <si>
+    <t>GFO72A3</t>
+  </si>
+  <si>
+    <t>Giấy Fo A4-80 PTL) (2)</t>
+  </si>
+  <si>
+    <t>GFO80A4-2</t>
+  </si>
+  <si>
+    <t>Giấy Fo A4-80 PTL) (1)</t>
+  </si>
+  <si>
+    <t>GFO80A4-1</t>
+  </si>
+  <si>
+    <t>16 x 23,7cm</t>
+  </si>
+  <si>
+    <t>Giấy Fo B5-70 (khổ hộ khẩu) (PTL)</t>
+  </si>
+  <si>
+    <t>GFO70B5N</t>
+  </si>
+  <si>
+    <t>18 x 27cm</t>
+  </si>
+  <si>
+    <t>GFO70B5L</t>
+  </si>
+  <si>
+    <t>Giấy Fo A4-72 (PTL)</t>
+  </si>
+  <si>
+    <t>GFO72A4</t>
+  </si>
+  <si>
+    <t>Giấy Fo A4-68 (PTL)</t>
+  </si>
+  <si>
+    <t>GFO68A4</t>
+  </si>
+  <si>
+    <t>BK1.2A4</t>
+  </si>
+  <si>
+    <t>Bìa kiếng A4 Dày 1.2zem</t>
+  </si>
+  <si>
+    <t>Kg</t>
+  </si>
+  <si>
+    <t>xấp/85 tờ</t>
+  </si>
+  <si>
+    <t>BK1.5A4</t>
+  </si>
+  <si>
+    <t>Bìa kiếng A4 Dày 1.5zem</t>
+  </si>
+  <si>
+    <t>xấp/72 tờ</t>
+  </si>
+  <si>
+    <t>BK1.5A4L</t>
+  </si>
+  <si>
+    <t>Bìa kiếng A4 Dày 1.5zem (giá lẻ)</t>
+  </si>
+  <si>
+    <t>Tờ</t>
+  </si>
+  <si>
+    <t>BK1,8A4</t>
+  </si>
+  <si>
+    <t>Bìa kiếng A4 Đài Loan dày 1.8zem</t>
+  </si>
+  <si>
+    <t>Xấp</t>
+  </si>
+  <si>
+    <t>Xấp/100 tờ</t>
+  </si>
+  <si>
+    <t>BK1.5A3</t>
+  </si>
+  <si>
+    <t>Bìa kiếng A3 1.5zem</t>
+  </si>
+  <si>
+    <t>Xấp/74 tờ</t>
+  </si>
+  <si>
+    <t>BK2-80</t>
+  </si>
+  <si>
+    <t>Bìa kiếng cuồn khổ 80cm 2zem</t>
+  </si>
+  <si>
+    <t>Mét</t>
+  </si>
+  <si>
+    <t>Cuồn 50kg</t>
+  </si>
+  <si>
+    <t>FOM80A4</t>
+  </si>
+  <si>
+    <t>Giấy Fo màu A4 - 80 (xanh lá, dương, vàng, hồng…)</t>
+  </si>
+  <si>
+    <t>Giấy ngoại</t>
+  </si>
+  <si>
+    <t>FOM70A4</t>
+  </si>
+  <si>
+    <t>Giấy Fo màu A4 - 70 (xanh lá, dương, vàng, hồng…)</t>
+  </si>
+  <si>
+    <t>FOMN</t>
+  </si>
+  <si>
+    <t>Giấy Fo màu nhuộm</t>
+  </si>
+  <si>
+    <t>FOMI70</t>
+  </si>
+  <si>
+    <t>Giấy Fo màu INDO đặc biệt (nhiều màu lựa chọn) 70</t>
+  </si>
+  <si>
+    <t>FOMI80</t>
+  </si>
+  <si>
+    <t>Giấy Fo màu INDO đặc biệt (nhiều màu lựa chọn) 80</t>
+  </si>
+  <si>
+    <t>BT180</t>
+  </si>
+  <si>
+    <t>Bìa Thái A4 chữ P - 180gms</t>
+  </si>
+  <si>
+    <t>GT80</t>
+  </si>
+  <si>
+    <t>Giấy thơm A4 (80Micgsm) (1 mặt bông)</t>
+  </si>
+  <si>
+    <t>Xấp/250 tờ</t>
+  </si>
+  <si>
+    <t>Bìa thơm A4 (2 mặt bông) - 180gsm</t>
+  </si>
+  <si>
+    <t>BCMA4</t>
+  </si>
+  <si>
+    <t>Bìa Camay in Card</t>
+  </si>
+  <si>
+    <t>Bịch /5 xấp</t>
+  </si>
+  <si>
+    <t>BGA4</t>
+  </si>
+  <si>
+    <t>Bìa gân A4 in Card</t>
+  </si>
+  <si>
+    <t>BNDA4</t>
+  </si>
+  <si>
+    <t>Bìa ánh kim (nhũ) A4 đỏ</t>
+  </si>
+  <si>
+    <t>Xấp/50 tờ</t>
+  </si>
+  <si>
+    <t>BNNMA4</t>
+  </si>
+  <si>
+    <t>Bìa ánh kim (nhũ) A4 nhiều màu</t>
+  </si>
+  <si>
+    <t>BC250A4</t>
+  </si>
+  <si>
+    <t>Bìa Cosches trắng 250 in Card</t>
+  </si>
+  <si>
+    <t>BC300A4</t>
+  </si>
+  <si>
+    <t>Bìa Cosches trắng 300 in Card</t>
+  </si>
+  <si>
+    <t>BIHA4</t>
+  </si>
+  <si>
+    <t>Bìa In Hoa</t>
+  </si>
+  <si>
+    <t>GICH</t>
+  </si>
+  <si>
+    <t>Hộp Giấy in Card cắt sẵn</t>
+  </si>
+  <si>
+    <t>Hộp/100 tờ</t>
+  </si>
+  <si>
+    <t>BT180A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bìa màu A3 Thái Lan (nhiều màu lựa chọn)  </t>
+  </si>
+  <si>
+    <t>BT180F3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bìa màu F3 Thái Lan (nhiều màu lựa chọn)  </t>
+  </si>
+  <si>
+    <t>BDNA4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bìa màu Đồng Nai A4 </t>
+  </si>
+  <si>
+    <t>Ram/500</t>
+  </si>
+  <si>
+    <t>BDNA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bìa màu Đồng Nai A3 (nhiều màu lựa chọn)  </t>
+  </si>
+  <si>
+    <t>BDNF3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bìa màu F3 Đồng Nai (nhiều màu lựa chọn)  </t>
+  </si>
+  <si>
+    <t>BIDA4-1</t>
+  </si>
+  <si>
+    <t>Bìa Indo A4 (1)</t>
+  </si>
+  <si>
+    <t>BIDA4-2</t>
+  </si>
+  <si>
+    <t>Bìa Indo A4 (2)</t>
+  </si>
+  <si>
+    <t>BDQA4</t>
+  </si>
+  <si>
+    <t>Bìa dạ quang A4</t>
+  </si>
+  <si>
+    <t>BMF3</t>
+  </si>
+  <si>
+    <t>Bìa Mỹ F3</t>
+  </si>
+  <si>
+    <t>GCLD</t>
+  </si>
+  <si>
+    <t>Giấy Cacbonles liên đầu - 210 x 279cm</t>
+  </si>
+  <si>
+    <t>GCLG</t>
+  </si>
+  <si>
+    <t>Giấy Cacbonles liên giữa - 210 x 279cm</t>
+  </si>
+  <si>
+    <t>GCLC</t>
+  </si>
+  <si>
+    <t>Giấy Cacbonles liên cuối - 210 x 279cm</t>
+  </si>
+  <si>
+    <t>GIHE1</t>
+  </si>
+  <si>
+    <t>Giấy in hình 1 mặt EPSON</t>
+  </si>
+  <si>
+    <t>Xấp/20 tờ</t>
+  </si>
+  <si>
+    <t>GIHE2</t>
+  </si>
+  <si>
+    <t>Giấy in hình 2 mặt EPSON</t>
+  </si>
+  <si>
+    <t>GIME</t>
+  </si>
+  <si>
+    <t>Giấy in màu EPSON</t>
+  </si>
+  <si>
+    <t>GIH2-260HN</t>
+  </si>
+  <si>
+    <t>Giấy in hình 2 mặt mờ 260g HN</t>
+  </si>
+  <si>
+    <t>GIHGA4HN</t>
+  </si>
+  <si>
+    <t>Giấy in hình gân A4 HN</t>
+  </si>
+  <si>
+    <t>GIH2A4NTS</t>
+  </si>
+  <si>
+    <t>Giấy in hình 2 mặt bóng dày A4 NTS</t>
+  </si>
+  <si>
+    <t>GIHK135PTS</t>
+  </si>
+  <si>
+    <t>Giấy in hình keo dán PTS 135g</t>
+  </si>
+  <si>
+    <t>GIH2A4260HN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giấy in hình 2 mặt bóng A4 260g HN </t>
+  </si>
+  <si>
+    <t>GIH2A4HN</t>
+  </si>
+  <si>
+    <t>Giấy in hình 2 mặt bóng dày A4 HN</t>
+  </si>
+  <si>
+    <t>GIH1A4-180M</t>
+  </si>
+  <si>
+    <t>Giấy in hình 1 mặt A4 Morelica - 180g</t>
+  </si>
+  <si>
+    <t>GIH1A4-180TNE</t>
+  </si>
+  <si>
+    <t>Giấy in hình 1 mặt A4 TNE - 180g</t>
+  </si>
+  <si>
+    <t>GIH1A4-135BTS</t>
+  </si>
+  <si>
+    <t>Giấy in hình 1 mặt A4 135g - BTS</t>
+  </si>
+  <si>
+    <t>GIH1A4-230HN</t>
+  </si>
+  <si>
+    <t>Giấy in hình 1 mặt A4 230g - HN</t>
+  </si>
+  <si>
+    <t>GIH1A3-180M</t>
+  </si>
+  <si>
+    <t>Giấy in hình 1 mặt A3 Morelica - 180g</t>
+  </si>
+  <si>
+    <t>GIH2A5HN</t>
+  </si>
+  <si>
+    <t>Giấy in hình 2 mặt bóng dày A5 HN</t>
+  </si>
+  <si>
+    <t>GIH1A3</t>
+  </si>
+  <si>
+    <t>Giấy in hình A3 1 mặt</t>
+  </si>
+  <si>
+    <t>DA4V</t>
+  </si>
+  <si>
+    <t>Decal A4 trắng  (đế vàng)</t>
+  </si>
+  <si>
+    <t>Xấp / 100 tờ</t>
+  </si>
+  <si>
+    <t>DA4X</t>
+  </si>
+  <si>
+    <t>Decal A4 trắng  (đế xanh)</t>
+  </si>
+  <si>
+    <t>DA4BA</t>
+  </si>
+  <si>
+    <t>Decal A4 trắng  (Decal bể) AMAZON</t>
+  </si>
+  <si>
+    <t>Dùng làm tem bảo hành, niêm phong…</t>
+  </si>
+  <si>
+    <t>DDBA4</t>
+  </si>
+  <si>
+    <t>Decal da bò A4 (màu thùng Carton)</t>
+  </si>
+  <si>
+    <t>DDBA4K</t>
+  </si>
+  <si>
+    <t>Decal da bò A4 KHAMISTICKER</t>
+  </si>
+  <si>
+    <t>10 Ngôi sao</t>
+  </si>
+  <si>
+    <t>DDK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decal dán kiếng </t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>Decal màu</t>
+  </si>
+  <si>
+    <t>GCG83A3</t>
+  </si>
+  <si>
+    <t>Giấy Can GATEWAY A3- Đlượng 83 - Anh</t>
+  </si>
+  <si>
+    <t>Hộp</t>
+  </si>
+  <si>
+    <t>Hộp /250 tờ</t>
+  </si>
+  <si>
+    <t>GCG93A3</t>
+  </si>
+  <si>
+    <t>Giấy Can GATEWAY A3- Đlượng 93 - Anh</t>
+  </si>
+  <si>
+    <t>GCG53A4</t>
+  </si>
+  <si>
+    <t>Giấy Can GATEWAY A4- Đlượng 53 - Anh</t>
+  </si>
+  <si>
+    <t>Hộp /500 tờ</t>
+  </si>
+  <si>
+    <t>GCG63A4</t>
+  </si>
+  <si>
+    <t>Giấy Can GATEWAY A4- Đlượng 63 - Anh</t>
+  </si>
+  <si>
+    <t>GCG73A4</t>
+  </si>
+  <si>
+    <t>Giấy Can GATEWAY A4- Đlượng 73 - Anh</t>
+  </si>
+  <si>
+    <t>GCG83A4</t>
+  </si>
+  <si>
+    <t>Giấy Can GATEWAY A4- Đlượng 83 - Anh</t>
+  </si>
+  <si>
+    <t>GCG93A4</t>
+  </si>
+  <si>
+    <t>Giấy Can GATEWAY A4- Đlượng 93 - Anh</t>
+  </si>
+  <si>
+    <t>NTA5</t>
+  </si>
+  <si>
+    <t>Nhãn dán Tomy A5</t>
+  </si>
+  <si>
+    <t>Nhiều số lựa chọn</t>
+  </si>
+  <si>
+    <t>NTA4</t>
+  </si>
+  <si>
+    <t>Nhãn dán Tomy A4</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>Tem số (từ 1 - 100)</t>
+  </si>
+  <si>
+    <t>Xấp /10 tờ</t>
+  </si>
+  <si>
+    <t>TMT</t>
+  </si>
+  <si>
+    <t>Tem mũi tên tròn</t>
+  </si>
+  <si>
+    <t>N1.5</t>
+  </si>
+  <si>
+    <t>Notes 1,5 x 2inch TTH vàng</t>
+  </si>
+  <si>
+    <t>N32</t>
+  </si>
+  <si>
+    <t>Notes 3 x 2inch TTH vàng</t>
+  </si>
+  <si>
+    <t>N33</t>
+  </si>
+  <si>
+    <t>Notes 3 x 3inch TTH vàng</t>
+  </si>
+  <si>
+    <t>N34</t>
+  </si>
+  <si>
+    <t>Notes 3 x 4inch TTH vàng</t>
+  </si>
+  <si>
+    <t>N35</t>
+  </si>
+  <si>
+    <t>Notes 3 x 5inch TTH vàng</t>
+  </si>
+  <si>
+    <t>N46</t>
+  </si>
+  <si>
+    <t>Notes 4 x 6inch</t>
+  </si>
+  <si>
+    <t>N32M</t>
+  </si>
+  <si>
+    <t>Notes 3 x 2inch màu xanh lá, xanh dương, hồng</t>
+  </si>
+  <si>
+    <t>N33M</t>
+  </si>
+  <si>
+    <t>Notes 3 x 3inch TTH xanhlá, dương, hồng</t>
+  </si>
+  <si>
+    <t>N33XH</t>
+  </si>
+  <si>
+    <t>Notes 3 x 3inch XUKIVA đựng trong hộp Meka</t>
+  </si>
+  <si>
+    <t>NN5M</t>
+  </si>
+  <si>
+    <t>Notes nhựa 5 màu</t>
+  </si>
+  <si>
+    <t>NN5</t>
+  </si>
+  <si>
+    <t>NG5M3M</t>
+  </si>
+  <si>
+    <t>Giấy Notes giấy 5 màu 3M</t>
+  </si>
+  <si>
+    <t>NG5M33-3M</t>
+  </si>
+  <si>
+    <t>Giấy Notes 5 màu 3 x 3inch 3E</t>
+  </si>
+  <si>
+    <t>NG5MP</t>
+  </si>
+  <si>
+    <t>Giấy Notes giấy PRONOTI 5 màu</t>
+  </si>
+  <si>
+    <t>NG4MP</t>
+  </si>
+  <si>
+    <t>Giấy Notes giấy PRONOTI 4 màu</t>
+  </si>
+  <si>
+    <t>NG3MP</t>
+  </si>
+  <si>
+    <t>Giấy Notes giấy PRONOTI 3 màu</t>
+  </si>
+  <si>
+    <t>NSH3M</t>
+  </si>
+  <si>
+    <t>Giấy Notes "Sign here" 3M</t>
+  </si>
+  <si>
+    <t>NGPSHP</t>
+  </si>
+  <si>
+    <t>Giấy Notes "Please Sign here" (Pronoti)</t>
+  </si>
+  <si>
+    <t>Bịch</t>
+  </si>
+  <si>
+    <t>N6568</t>
+  </si>
+  <si>
+    <t>Giấy ghi chú Post-it 3x2 3M (6568)</t>
+  </si>
+  <si>
+    <t>400 xấp/ thng</t>
+  </si>
+  <si>
+    <t>N6548</t>
+  </si>
+  <si>
+    <t>Giấy ghi chú Post-it 3x3 3M (6548)</t>
+  </si>
+  <si>
+    <t>300 xấp/ thng</t>
+  </si>
+  <si>
+    <t>N6578</t>
+  </si>
+  <si>
+    <t>Giấy ghi chú Post-it 3x4 3M (6578)</t>
+  </si>
+  <si>
+    <t>200 xấp/ thng</t>
+  </si>
+  <si>
+    <t>N6539</t>
+  </si>
+  <si>
+    <t>Giấy ghi chú Post-it 1.5x2 ( 6539 )</t>
+  </si>
+  <si>
+    <t>Gói</t>
+  </si>
+  <si>
+    <t>4 xấp/ gói</t>
+  </si>
+  <si>
+    <t>N6569</t>
+  </si>
+  <si>
+    <t>Giấy ghi chú Post-it 3x2 (6569 )</t>
+  </si>
+  <si>
+    <t>2 xấp/ gói</t>
+  </si>
+  <si>
+    <t>N6579</t>
+  </si>
+  <si>
+    <t>Giấy ghi chú Post-it 3x4 (6579)</t>
+  </si>
+  <si>
+    <t>NDQ3M688</t>
+  </si>
+  <si>
+    <t>Miếng đánh dấu 5 màu dạ quang 3M (688-5CF)</t>
+  </si>
+  <si>
+    <t>10 xấp / bìa</t>
+  </si>
+  <si>
+    <t>NMT3M6885</t>
+  </si>
+  <si>
+    <t>Phân trang mũi tên 3M (6885ARR-3M)</t>
+  </si>
+  <si>
+    <t>NSH3M6809</t>
+  </si>
+  <si>
+    <t>Miếng đánh dấu Signhere (6809-3M)</t>
+  </si>
+  <si>
+    <t>Vỉ</t>
+  </si>
+  <si>
+    <t>36 vĩ/ thùng</t>
+  </si>
+  <si>
+    <t>N33KK4M</t>
+  </si>
+  <si>
+    <t>Giấy Notes 3 x 3inch không keo 4 màu</t>
+  </si>
+  <si>
+    <t>G1LA5</t>
+  </si>
+  <si>
+    <t>Giấy trắng 1 liên A5 (105mm*140mm)</t>
+  </si>
+  <si>
+    <t>G1LA4</t>
+  </si>
+  <si>
+    <t>Giấy trắng 1 liên A4 (210mm*279mm)</t>
+  </si>
+  <si>
+    <t>G1LF4</t>
+  </si>
+  <si>
+    <t>Giấy trắng 1 liên F4 (240mm*279mm)</t>
+  </si>
+  <si>
+    <t>G1LA3</t>
+  </si>
+  <si>
+    <t>Giấy trắng 1 liên A3 (380mm*279mm)</t>
+  </si>
+  <si>
+    <t>G234LA4</t>
+  </si>
+  <si>
+    <t>Giấy 2,3,4 liên A4 (210mm*279mm)</t>
+  </si>
+  <si>
+    <t>G5LA4</t>
+  </si>
+  <si>
+    <t>Giấy 5 liên A4 (210mm*279mm)</t>
+  </si>
+  <si>
+    <t>G234LF4</t>
+  </si>
+  <si>
+    <t>Giấy 2,3,4,5 liên F4 (240mm*279mm)</t>
+  </si>
+  <si>
+    <t>G2345L305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giấy 2,3,4,5 liên (240mm*305mm) </t>
+  </si>
+  <si>
+    <t>G2345LA3</t>
+  </si>
+  <si>
+    <t>Giấy 2,3,4,5 liên A3 (380mm*279mm)</t>
+  </si>
+  <si>
+    <t>G2345LA4-FO</t>
+  </si>
+  <si>
+    <t>Giấy 2,3,4,5 liên A4 (210mm*279mm)</t>
+  </si>
+  <si>
+    <t>GTCA5K</t>
+  </si>
+  <si>
+    <t>Giấy thủ công A5 (Có keo dán)</t>
+  </si>
+  <si>
+    <t>Đủ màu</t>
+  </si>
+  <si>
+    <t>GTCA5KK</t>
+  </si>
+  <si>
+    <t>Giấy thủ công A5 (không keo dán)</t>
+  </si>
+  <si>
+    <t>GTC3545</t>
+  </si>
+  <si>
+    <t>Giấy thủ công 35 x 45cm</t>
+  </si>
+  <si>
+    <t>GR250</t>
+  </si>
+  <si>
+    <t>Giấy Roky mặt trắng, mặt đen - ĐLượng 250</t>
+  </si>
+  <si>
+    <t>Giấy cắt rập</t>
+  </si>
+  <si>
+    <t>GR250PTL</t>
+  </si>
+  <si>
+    <t>Giấy Roky mặt trắng, mặt đen - ĐLượng 250 PTL</t>
+  </si>
+  <si>
+    <t>GR300</t>
+  </si>
+  <si>
+    <t>Giấy Roky mặt trắng, mặt đen - ĐLượng 300</t>
+  </si>
+  <si>
+    <t>GRK350</t>
+  </si>
+  <si>
+    <t>Giấy Roky mặt trắng, mặt đen - ĐLượng 350 PTL</t>
+  </si>
+  <si>
+    <t>GR400</t>
+  </si>
+  <si>
+    <t>Giấy Roky mặt trắng, mặt đen - ĐLượng 400</t>
+  </si>
+  <si>
+    <t>GCA0</t>
+  </si>
+  <si>
+    <t>Giấy Cosches A0 - trắng</t>
+  </si>
+  <si>
+    <t>GC6084-150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giấy Cosches (60 x 84)cm - 2 mặt trắng - 150gsm2 </t>
+  </si>
+  <si>
+    <t>BV</t>
+  </si>
+  <si>
+    <t>Bìa vàng</t>
+  </si>
+  <si>
+    <t>GAO80</t>
+  </si>
+  <si>
+    <t>Giấy Ao - Định lượng 80</t>
+  </si>
+  <si>
+    <t>GAO105</t>
+  </si>
+  <si>
+    <t>Giấy Ao - Định lượng 105</t>
+  </si>
+  <si>
+    <t>GAO205</t>
+  </si>
+  <si>
+    <t>Giấy Ao - Định lượng 205</t>
+  </si>
+  <si>
+    <t>GAO101085-80</t>
+  </si>
+  <si>
+    <t>Giấy Ao (10 x 10 x 85) - Định lượng 80</t>
+  </si>
+  <si>
+    <t>Cuồn</t>
+  </si>
+  <si>
+    <t>GAO84120-105</t>
+  </si>
+  <si>
+    <t>Giấy Ao khổ 84cm - Dài 120m - Định lượng 105</t>
+  </si>
+  <si>
+    <t>GAO121285-100</t>
+  </si>
+  <si>
+    <t>Giấy Ao (12 x 12 x 85) - Định lượng 100</t>
+  </si>
+  <si>
+    <t>GAO101085-100-3</t>
+  </si>
+  <si>
+    <t>Giấy Ao (10 x 10 x 85) - Định lượng 100 - 3kg</t>
+  </si>
+  <si>
+    <t>GAO101085-100-5</t>
+  </si>
+  <si>
+    <t>Giấy Ao (10 x 10 x 85) - Định lượng 100 - 5kg</t>
+  </si>
+  <si>
+    <t>GAO151585-100-5</t>
+  </si>
+  <si>
+    <t>Giấy Ao (15 x 15 x 85) - Định lượng 100  - 5kg</t>
+  </si>
+  <si>
+    <t>GAO1515108-100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giấy Ao (15 x 15 x 108) - Định lượng 100 </t>
+  </si>
+  <si>
+    <t>GPA4</t>
+  </si>
+  <si>
+    <t>Giấy Perlure mỏng (dùng niêm phong)</t>
+  </si>
+  <si>
+    <t>GFS30T</t>
+  </si>
+  <si>
+    <t>Giấy Fax Sakura 30m TOYO</t>
+  </si>
+  <si>
+    <t>210/216mm</t>
+  </si>
+  <si>
+    <t>GFS30D</t>
+  </si>
+  <si>
+    <t>Giấy Fax Sakura 30m DAPHA</t>
+  </si>
+  <si>
+    <t>GFS50</t>
+  </si>
+  <si>
+    <t>Giấy Fax Sakura 50m</t>
+  </si>
+  <si>
+    <t>GN5750</t>
+  </si>
+  <si>
+    <t>Giấy nhiệt máy tính tiền 57mm x 50m</t>
+  </si>
+  <si>
+    <t>GN8030</t>
+  </si>
+  <si>
+    <t>Giấy nhiệt máy tính tiền 80mm x 30m</t>
+  </si>
+  <si>
+    <t>GN80</t>
+  </si>
+  <si>
+    <t>Giấy nhiệt máy tính tiền 80mm 60</t>
+  </si>
+  <si>
+    <t>GC57</t>
+  </si>
+  <si>
+    <t>Giấy cộng 5.7cm</t>
+  </si>
+  <si>
+    <t>GC75</t>
+  </si>
+  <si>
+    <t>Giấy cộng 7.5cm</t>
+  </si>
+  <si>
+    <t>GTA4KX</t>
+  </si>
+  <si>
+    <t>Giấy than Kokusai A4 xanh</t>
+  </si>
+  <si>
+    <t>GTA4KD</t>
+  </si>
+  <si>
+    <t>Giấy than Kokusai A4 đen</t>
+  </si>
+  <si>
+    <t>GTK085</t>
+  </si>
+  <si>
+    <t>Giấy than Kokusai khổ 0.85m - Cuồn 5kg</t>
+  </si>
+  <si>
+    <t>GTG</t>
+  </si>
+  <si>
+    <t>Giấy than Mỹ G-star</t>
+  </si>
+  <si>
+    <t>2 màu xanh, đen</t>
+  </si>
+  <si>
+    <t>GTCL</t>
+  </si>
+  <si>
+    <t>Giấy than Cửu Long</t>
+  </si>
+  <si>
+    <t>GTHD</t>
+  </si>
+  <si>
+    <t>Giấy than Horse màu đen (1)</t>
+  </si>
+  <si>
+    <t>GTHCG</t>
+  </si>
+  <si>
+    <t>Giấy than Horse Cô Gái</t>
+  </si>
+  <si>
+    <t>GTH4400</t>
+  </si>
+  <si>
+    <t>Giấy than Horse H-4400</t>
+  </si>
+  <si>
+    <t>GT2M</t>
+  </si>
+  <si>
+    <t>Giấy than 2 mặt</t>
+  </si>
+  <si>
+    <t>GTBT</t>
+  </si>
+  <si>
+    <t>Giấy than Carbonex A4 (Hiệu bàn tay)</t>
+  </si>
+  <si>
+    <t>THƯỚC ĐO DẺO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="\$#,##0\ ;\(\$#,##0\)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="\$#,##0\ ;\(\$#,##0\)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -433,6 +1823,27 @@
       <family val="1"/>
       <charset val="163"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -475,20 +1886,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -496,46 +1908,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -544,9 +1920,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -554,9 +1927,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="17" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -577,8 +1947,58 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="12">
+    <cellStyle name="Comma" xfId="11" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="2"/>
     <cellStyle name="Comma0" xfId="3"/>
     <cellStyle name="Currency0" xfId="4"/>
@@ -593,6 +2013,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -871,7 +2296,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -883,7 +2308,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -891,47 +2316,49 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G211"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="D218" sqref="D218"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" style="29" customWidth="1"/>
-    <col min="3" max="3" width="39.5" customWidth="1"/>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
+    <col min="2" max="2" width="21" style="15" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
     <col min="4" max="4" width="44.75" customWidth="1"/>
-    <col min="7" max="7" width="63.125" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:7" ht="25.5">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" ht="25.5">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+    </row>
+    <row r="3" spans="1:7" ht="40.5">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>84</v>
+      <c r="B3" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -945,641 +2372,4530 @@
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="63" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="17">
-        <v>4</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="5">
+        <v>20</v>
+      </c>
+      <c r="C4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="21">
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="17">
-        <v>4</v>
-      </c>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="5">
+        <v>20</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="6">
+      <c r="F5" s="24"/>
+      <c r="G5" s="21">
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.75">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="17">
-        <v>4</v>
-      </c>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="5">
+        <v>21</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="6">
+      <c r="F6" s="24"/>
+      <c r="G6" s="21">
         <v>33000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="17">
-        <v>4</v>
-      </c>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="5">
+        <v>22</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="21">
         <v>55000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.75">
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="17">
-        <v>4</v>
-      </c>
-      <c r="C8" s="15" t="s">
+      <c r="B8" s="5">
+        <v>22</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="21">
         <v>48000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.75">
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="17">
-        <v>5</v>
-      </c>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="5">
+        <v>22</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="21">
         <v>85000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.75">
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="17">
-        <v>6</v>
-      </c>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="5">
+        <v>22</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="21">
         <v>93000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.75">
       <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="17">
-        <v>7</v>
-      </c>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="5">
+        <v>22</v>
+      </c>
+      <c r="C11" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="21">
         <v>87000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.75">
       <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="17">
-        <v>8</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="5">
+        <v>22</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="21">
         <v>77000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.75">
       <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="17">
-        <v>4</v>
-      </c>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="5">
+        <v>22</v>
+      </c>
+      <c r="C13" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="21">
         <v>87000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15.75">
       <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="17">
-        <v>5</v>
-      </c>
-      <c r="C14" s="15" t="s">
+      <c r="B14" s="5">
+        <v>22</v>
+      </c>
+      <c r="C14" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="21">
         <v>94000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15.75">
       <c r="A15" s="2">
         <v>12</v>
       </c>
-      <c r="B15" s="17">
-        <v>6</v>
-      </c>
-      <c r="C15" s="15" t="s">
+      <c r="B15" s="5">
+        <v>22</v>
+      </c>
+      <c r="C15" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="21">
         <v>75000</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15.75">
       <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="17">
-        <v>7</v>
-      </c>
-      <c r="C16" s="15" t="s">
+      <c r="B16" s="5">
+        <v>22</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="21">
         <v>75000</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15.75">
       <c r="A17" s="2">
         <v>14</v>
       </c>
-      <c r="B17" s="17">
-        <v>8</v>
-      </c>
-      <c r="C17" s="15" t="s">
+      <c r="B17" s="5">
+        <v>22</v>
+      </c>
+      <c r="C17" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="21">
         <v>85000</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15.75">
       <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="17">
-        <v>4</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="6">
+      <c r="B18" s="5">
+        <v>23</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="21">
         <v>28000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="15.75">
       <c r="A19" s="2">
         <v>16</v>
       </c>
-      <c r="B19" s="17">
-        <v>5</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="6">
+      <c r="B19" s="5">
+        <v>23</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="21">
         <v>34000</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15.75">
       <c r="A20" s="2">
         <v>17</v>
       </c>
-      <c r="B20" s="17">
-        <v>6</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="6">
+      <c r="B20" s="5">
+        <v>23</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="29"/>
+      <c r="G20" s="21">
         <v>32000</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15.75">
       <c r="A21" s="2">
         <v>18</v>
       </c>
-      <c r="B21" s="17">
-        <v>7</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="6">
+      <c r="B21" s="5">
+        <v>23</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="24"/>
+      <c r="G21" s="21">
         <v>45000</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15.75">
       <c r="A22" s="2">
         <v>19</v>
       </c>
-      <c r="B22" s="17">
-        <v>8</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="6">
+      <c r="B22" s="5">
+        <v>23</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="24"/>
+      <c r="G22" s="21">
         <v>47000</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="15.75">
       <c r="A23" s="2">
         <v>20</v>
       </c>
-      <c r="B23" s="17">
-        <v>4</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="6">
+      <c r="B23" s="5">
+        <v>23</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="21">
         <v>46000</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15.75">
       <c r="A24" s="2">
         <v>21</v>
       </c>
-      <c r="B24" s="17">
-        <v>4</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="6">
+      <c r="B24" s="5">
+        <v>23</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="G24" s="21">
         <v>51000</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="15.75">
       <c r="A25" s="2">
         <v>22</v>
       </c>
-      <c r="B25" s="17">
-        <v>4</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="6">
+      <c r="B25" s="5">
+        <v>23</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="24"/>
+      <c r="G25" s="21">
         <v>54000</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="15.75">
       <c r="A26" s="2">
         <v>23</v>
       </c>
-      <c r="B26" s="17">
-        <v>4</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="6">
+      <c r="B26" s="5">
+        <v>23</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="24"/>
+      <c r="G26" s="21">
         <v>52000</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15.75">
       <c r="A27" s="2">
         <v>24</v>
       </c>
-      <c r="B27" s="17">
-        <v>4</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="6">
+      <c r="B27" s="5">
+        <v>23</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="24"/>
+      <c r="G27" s="21">
         <v>51000</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15.75">
       <c r="A28" s="2">
         <v>25</v>
       </c>
-      <c r="B28" s="17">
-        <v>5</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="6">
+      <c r="B28" s="5">
+        <v>23</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="24"/>
+      <c r="G28" s="21">
         <v>53000</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15.75">
       <c r="A29" s="2">
         <v>26</v>
       </c>
-      <c r="B29" s="17">
-        <v>6</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="6">
+      <c r="B29" s="5">
+        <v>23</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="24"/>
+      <c r="G29" s="21">
         <v>51000</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15.75">
       <c r="A30" s="2">
         <v>27</v>
       </c>
-      <c r="B30" s="17">
-        <v>7</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="6">
+      <c r="B30" s="5">
+        <v>23</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="24"/>
+      <c r="G30" s="21">
         <v>52000</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15.75">
       <c r="A31" s="2">
         <v>28</v>
       </c>
-      <c r="B31" s="17">
-        <v>8</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="6">
+      <c r="B31" s="5">
+        <v>23</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="24"/>
+      <c r="G31" s="21">
         <v>57000</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15.75">
       <c r="A32" s="2">
         <v>29</v>
       </c>
-      <c r="B32" s="17">
-        <v>7</v>
-      </c>
-      <c r="C32" s="16" t="s">
+      <c r="B32" s="5">
+        <v>23</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="24"/>
+      <c r="G32" s="21">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75">
+      <c r="A33" s="2">
+        <v>30</v>
+      </c>
+      <c r="B33" s="5">
+        <v>23</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="24"/>
+      <c r="G33" s="21">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75">
+      <c r="A34" s="2">
+        <v>31</v>
+      </c>
+      <c r="B34" s="5">
+        <v>23</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="24"/>
+      <c r="G34" s="21">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75">
+      <c r="A35" s="2">
+        <v>32</v>
+      </c>
+      <c r="B35" s="5">
+        <v>23</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="24"/>
+      <c r="G35" s="21">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75">
+      <c r="A36" s="2">
+        <v>33</v>
+      </c>
+      <c r="B36" s="5">
+        <v>23</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" s="24"/>
+      <c r="G36" s="21">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75">
+      <c r="A37" s="2">
+        <v>34</v>
+      </c>
+      <c r="B37" s="5">
+        <v>23</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" s="24"/>
+      <c r="G37" s="21">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75">
+      <c r="A38" s="2">
+        <v>35</v>
+      </c>
+      <c r="B38" s="5">
+        <v>23</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="24"/>
+      <c r="G38" s="21">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75">
+      <c r="A39" s="2">
+        <v>36</v>
+      </c>
+      <c r="B39" s="5">
+        <v>23</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" s="24"/>
+      <c r="G39" s="21">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75">
+      <c r="A40" s="2">
+        <v>37</v>
+      </c>
+      <c r="B40" s="5">
+        <v>23</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40" s="24"/>
+      <c r="G40" s="21">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75">
+      <c r="A41" s="2">
+        <v>38</v>
+      </c>
+      <c r="B41" s="5">
+        <v>23</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" s="24"/>
+      <c r="G41" s="21">
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75">
+      <c r="A42" s="2">
+        <v>39</v>
+      </c>
+      <c r="B42" s="5">
+        <v>23</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" s="24"/>
+      <c r="G42" s="21">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75">
+      <c r="A43" s="2">
+        <v>40</v>
+      </c>
+      <c r="B43" s="5">
+        <v>23</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43" s="24"/>
+      <c r="G43" s="21">
+        <v>67000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75">
+      <c r="A44" s="2">
+        <v>41</v>
+      </c>
+      <c r="B44" s="5">
+        <v>23</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44" s="24"/>
+      <c r="G44" s="21">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75">
+      <c r="A45" s="2">
+        <v>42</v>
+      </c>
+      <c r="B45" s="5">
+        <v>23</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F45" s="24"/>
+      <c r="G45" s="21">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75">
+      <c r="A46" s="2">
+        <v>43</v>
+      </c>
+      <c r="B46" s="5">
+        <v>23</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F46" s="24"/>
+      <c r="G46" s="21">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75">
+      <c r="A47" s="2">
+        <v>44</v>
+      </c>
+      <c r="B47" s="5">
+        <v>23</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F47" s="24"/>
+      <c r="G47" s="21">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75">
+      <c r="A48" s="2">
+        <v>45</v>
+      </c>
+      <c r="B48" s="5">
+        <v>23</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F48" s="24"/>
+      <c r="G48" s="21">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75">
+      <c r="A49" s="2">
+        <v>46</v>
+      </c>
+      <c r="B49" s="5">
+        <v>23</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F49" s="24"/>
+      <c r="G49" s="21">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75">
+      <c r="A50" s="2">
+        <v>47</v>
+      </c>
+      <c r="B50" s="5">
+        <v>23</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F50" s="24"/>
+      <c r="G50" s="21">
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75">
+      <c r="A51" s="2">
+        <v>48</v>
+      </c>
+      <c r="B51" s="5">
+        <v>23</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F51" s="24"/>
+      <c r="G51" s="21">
+        <v>116000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75">
+      <c r="A52" s="2">
+        <v>49</v>
+      </c>
+      <c r="B52" s="5">
+        <v>23</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F52" s="24"/>
+      <c r="G52" s="21">
+        <v>122000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75">
+      <c r="A53" s="2">
+        <v>50</v>
+      </c>
+      <c r="B53" s="5">
+        <v>23</v>
+      </c>
+      <c r="C53" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F53" s="24"/>
+      <c r="G53" s="21">
+        <v>118000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75">
+      <c r="A54" s="2">
+        <v>51</v>
+      </c>
+      <c r="B54" s="5">
+        <v>23</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F54" s="24"/>
+      <c r="G54" s="21">
+        <v>128000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75">
+      <c r="A55" s="2">
+        <v>52</v>
+      </c>
+      <c r="B55" s="5">
+        <v>23</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F55" s="24"/>
+      <c r="G55" s="21">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75">
+      <c r="A56" s="2">
+        <v>53</v>
+      </c>
+      <c r="B56" s="5">
+        <v>23</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="G56" s="21">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75">
+      <c r="A57" s="2">
+        <v>54</v>
+      </c>
+      <c r="B57" s="5">
+        <v>23</v>
+      </c>
+      <c r="C57" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="G57" s="21">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.75">
+      <c r="A58" s="2">
+        <v>55</v>
+      </c>
+      <c r="B58" s="5">
+        <v>23</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F58" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="G58" s="21">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15.75">
+      <c r="A59" s="2">
+        <v>56</v>
+      </c>
+      <c r="B59" s="5">
+        <v>24</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F59" s="24"/>
+      <c r="G59" s="21">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.75">
+      <c r="A60" s="2">
+        <v>57</v>
+      </c>
+      <c r="B60" s="5">
+        <v>24</v>
+      </c>
+      <c r="C60" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F60" s="24"/>
+      <c r="G60" s="21">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.75">
+      <c r="A61" s="2">
+        <v>58</v>
+      </c>
+      <c r="B61" s="5">
+        <v>24</v>
+      </c>
+      <c r="C61" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="G61" s="21">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.75">
+      <c r="A62" s="2">
+        <v>59</v>
+      </c>
+      <c r="B62" s="5">
+        <v>24</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F62" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="G62" s="21">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15.75">
+      <c r="A63" s="2">
+        <v>60</v>
+      </c>
+      <c r="B63" s="5">
+        <v>24</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F63" s="24"/>
+      <c r="G63" s="21">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.75">
+      <c r="A64" s="2">
+        <v>61</v>
+      </c>
+      <c r="B64" s="5">
+        <v>24</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F64" s="24"/>
+      <c r="G64" s="21">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15.75">
+      <c r="A65" s="2">
+        <v>62</v>
+      </c>
+      <c r="B65" s="5">
+        <v>24</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F65" s="24"/>
+      <c r="G65" s="21">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15.75">
+      <c r="A66" s="2">
+        <v>63</v>
+      </c>
+      <c r="B66" s="5">
+        <v>25</v>
+      </c>
+      <c r="C66" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="F66" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="G66" s="21">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15.75">
+      <c r="A67" s="2">
+        <v>64</v>
+      </c>
+      <c r="B67" s="5">
+        <v>25</v>
+      </c>
+      <c r="C67" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="F67" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="G67" s="21">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15.75">
+      <c r="A68" s="2">
+        <v>65</v>
+      </c>
+      <c r="B68" s="5">
+        <v>25</v>
+      </c>
+      <c r="C68" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="E68" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F68" s="24"/>
+      <c r="G68" s="21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15.75">
+      <c r="A69" s="2">
+        <v>66</v>
+      </c>
+      <c r="B69" s="5">
+        <v>25</v>
+      </c>
+      <c r="C69" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F69" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="G69" s="21">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15.75">
+      <c r="A70" s="2">
+        <v>67</v>
+      </c>
+      <c r="B70" s="5">
+        <v>25</v>
+      </c>
+      <c r="C70" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F70" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="G70" s="21">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15.75">
+      <c r="A71" s="2">
+        <v>68</v>
+      </c>
+      <c r="B71" s="5">
+        <v>25</v>
+      </c>
+      <c r="C71" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="D71" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E71" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="F71" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="G71" s="21">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="31.5">
+      <c r="A72" s="2">
+        <v>69</v>
+      </c>
+      <c r="B72" s="5">
+        <v>26</v>
+      </c>
+      <c r="C72" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F72" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="G72" s="21">
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="31.5">
+      <c r="A73" s="2">
+        <v>70</v>
+      </c>
+      <c r="B73" s="5">
+        <v>26</v>
+      </c>
+      <c r="C73" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="E73" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F73" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="G73" s="21">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15.75">
+      <c r="A74" s="2">
+        <v>71</v>
+      </c>
+      <c r="B74" s="5">
+        <v>26</v>
+      </c>
+      <c r="C74" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="E74" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F74" s="24"/>
+      <c r="G74" s="21">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="31.5">
+      <c r="A75" s="2">
         <v>72</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="B75" s="5">
+        <v>26</v>
+      </c>
+      <c r="C75" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="D75" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="E75" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F75" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="G75" s="21">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="31.5">
+      <c r="A76" s="2">
         <v>73</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="6">
-        <v>51000</v>
+      <c r="B76" s="5">
+        <v>26</v>
+      </c>
+      <c r="C76" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="D76" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="E76" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F76" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="G76" s="21">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15.75">
+      <c r="A77" s="2">
+        <v>74</v>
+      </c>
+      <c r="B77" s="5">
+        <v>27</v>
+      </c>
+      <c r="C77" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="D77" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="F77" s="24"/>
+      <c r="G77" s="21">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15.75">
+      <c r="A78" s="2">
+        <v>75</v>
+      </c>
+      <c r="B78" s="5">
+        <v>27</v>
+      </c>
+      <c r="C78" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="D78" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="E78" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="F78" s="24"/>
+      <c r="G78" s="21">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15.75">
+      <c r="A79" s="2">
+        <v>76</v>
+      </c>
+      <c r="B79" s="5">
+        <v>27</v>
+      </c>
+      <c r="C79" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="D79" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="E79" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="F79" s="24"/>
+      <c r="G79" s="21">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15.75">
+      <c r="A80" s="2">
+        <v>77</v>
+      </c>
+      <c r="B80" s="5">
+        <v>27</v>
+      </c>
+      <c r="C80" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="D80" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="F80" s="24"/>
+      <c r="G80" s="21">
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15.75">
+      <c r="A81" s="2">
+        <v>78</v>
+      </c>
+      <c r="B81" s="5">
+        <v>27</v>
+      </c>
+      <c r="C81" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="D81" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="E81" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="F81" s="24"/>
+      <c r="G81" s="21">
+        <v>73000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15.75">
+      <c r="A82" s="2">
+        <v>79</v>
+      </c>
+      <c r="B82" s="5">
+        <v>27</v>
+      </c>
+      <c r="C82" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="D82" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="E82" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="F82" s="24"/>
+      <c r="G82" s="21">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15.75">
+      <c r="A83" s="2">
+        <v>80</v>
+      </c>
+      <c r="B83" s="5">
+        <v>27</v>
+      </c>
+      <c r="C83" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="D83" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="E83" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="F83" s="24"/>
+      <c r="G83" s="21">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15.75">
+      <c r="A84" s="2">
+        <v>81</v>
+      </c>
+      <c r="B84" s="5">
+        <v>27</v>
+      </c>
+      <c r="C84" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="D84" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="E84" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="F84" s="24"/>
+      <c r="G84" s="21">
+        <v>71000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15.75">
+      <c r="A85" s="2">
+        <v>82</v>
+      </c>
+      <c r="B85" s="5">
+        <v>27</v>
+      </c>
+      <c r="C85" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="D85" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="E85" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="F85" s="24"/>
+      <c r="G85" s="21">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15.75">
+      <c r="A86" s="2">
+        <v>83</v>
+      </c>
+      <c r="B86" s="5">
+        <v>27</v>
+      </c>
+      <c r="C86" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="D86" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="E86" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="F86" s="24"/>
+      <c r="G86" s="21">
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15.75">
+      <c r="A87" s="2">
+        <v>84</v>
+      </c>
+      <c r="B87" s="5">
+        <v>27</v>
+      </c>
+      <c r="C87" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="D87" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="E87" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="F87" s="24"/>
+      <c r="G87" s="21">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15.75">
+      <c r="A88" s="2">
+        <v>85</v>
+      </c>
+      <c r="B88" s="5">
+        <v>27</v>
+      </c>
+      <c r="C88" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="D88" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="E88" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="F88" s="24"/>
+      <c r="G88" s="21">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15.75">
+      <c r="A89" s="2">
+        <v>86</v>
+      </c>
+      <c r="B89" s="5">
+        <v>27</v>
+      </c>
+      <c r="C89" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="D89" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="E89" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="F89" s="24"/>
+      <c r="G89" s="21">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="15.75">
+      <c r="A90" s="2">
+        <v>87</v>
+      </c>
+      <c r="B90" s="5">
+        <v>27</v>
+      </c>
+      <c r="C90" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="D90" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="E90" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="F90" s="24"/>
+      <c r="G90" s="21">
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15.75">
+      <c r="A91" s="2">
+        <v>88</v>
+      </c>
+      <c r="B91" s="5">
+        <v>27</v>
+      </c>
+      <c r="C91" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="D91" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="E91" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F91" s="24"/>
+      <c r="G91" s="21">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15.75">
+      <c r="A92" s="2">
+        <v>89</v>
+      </c>
+      <c r="B92" s="5">
+        <v>27</v>
+      </c>
+      <c r="C92" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="E92" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F92" s="24"/>
+      <c r="G92" s="21">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15.75">
+      <c r="A93" s="2">
+        <v>90</v>
+      </c>
+      <c r="B93" s="5">
+        <v>27</v>
+      </c>
+      <c r="C93" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="E93" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="F93" s="24"/>
+      <c r="G93" s="21">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15.75">
+      <c r="A94" s="2">
+        <v>91</v>
+      </c>
+      <c r="B94" s="5">
+        <v>27</v>
+      </c>
+      <c r="C94" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="D94" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="E94" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="F94" s="24"/>
+      <c r="G94" s="21">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="15.75">
+      <c r="A95" s="2">
+        <v>92</v>
+      </c>
+      <c r="B95" s="5">
+        <v>27</v>
+      </c>
+      <c r="C95" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="D95" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="E95" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="F95" s="24"/>
+      <c r="G95" s="21">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="15.75">
+      <c r="A96" s="2">
+        <v>93</v>
+      </c>
+      <c r="B96" s="5">
+        <v>27</v>
+      </c>
+      <c r="C96" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="D96" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="E96" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="F96" s="24"/>
+      <c r="G96" s="21">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15.75">
+      <c r="A97" s="2">
+        <v>94</v>
+      </c>
+      <c r="B97" s="5">
+        <v>28</v>
+      </c>
+      <c r="C97" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="D97" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="E97" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F97" s="24"/>
+      <c r="G97" s="21">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15.75">
+      <c r="A98" s="2">
+        <v>95</v>
+      </c>
+      <c r="B98" s="5">
+        <v>28</v>
+      </c>
+      <c r="C98" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="D98" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="E98" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F98" s="24"/>
+      <c r="G98" s="21">
+        <v>101000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15.75">
+      <c r="A99" s="2">
+        <v>96</v>
+      </c>
+      <c r="B99" s="5">
+        <v>28</v>
+      </c>
+      <c r="C99" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="D99" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="E99" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F99" s="24"/>
+      <c r="G99" s="21">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="15.75">
+      <c r="A100" s="2">
+        <v>97</v>
+      </c>
+      <c r="B100" s="5">
+        <v>29</v>
+      </c>
+      <c r="C100" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="D100" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="E100" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F100" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="G100" s="21">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="15.75">
+      <c r="A101" s="2">
+        <v>98</v>
+      </c>
+      <c r="B101" s="5">
+        <v>29</v>
+      </c>
+      <c r="C101" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="D101" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="E101" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F101" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="G101" s="21">
+        <v>53000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="15.75">
+      <c r="A102" s="2">
+        <v>99</v>
+      </c>
+      <c r="B102" s="5">
+        <v>29</v>
+      </c>
+      <c r="C102" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="D102" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="E102" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F102" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="G102" s="21">
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="15.75">
+      <c r="A103" s="2">
+        <v>100</v>
+      </c>
+      <c r="B103" s="5">
+        <v>29</v>
+      </c>
+      <c r="C103" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="D103" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="E103" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F103" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="G103" s="21">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="15.75">
+      <c r="A104" s="2">
+        <v>101</v>
+      </c>
+      <c r="B104" s="5">
+        <v>29</v>
+      </c>
+      <c r="C104" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="D104" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="E104" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F104" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="G104" s="21">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="15.75">
+      <c r="A105" s="2">
+        <v>102</v>
+      </c>
+      <c r="B105" s="5">
+        <v>29</v>
+      </c>
+      <c r="C105" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="D105" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="E105" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F105" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="G105" s="21">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="15.75">
+      <c r="A106" s="2">
+        <v>103</v>
+      </c>
+      <c r="B106" s="5">
+        <v>29</v>
+      </c>
+      <c r="C106" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="D106" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="E106" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F106" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="G106" s="21">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="15.75">
+      <c r="A107" s="2">
+        <v>104</v>
+      </c>
+      <c r="B107" s="5">
+        <v>29</v>
+      </c>
+      <c r="C107" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="D107" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="E107" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F107" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="G107" s="21">
+        <v>79000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="15.75">
+      <c r="A108" s="2">
+        <v>105</v>
+      </c>
+      <c r="B108" s="5">
+        <v>29</v>
+      </c>
+      <c r="C108" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="D108" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="E108" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F108" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="G108" s="21">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="15.75">
+      <c r="A109" s="2">
+        <v>106</v>
+      </c>
+      <c r="B109" s="5">
+        <v>29</v>
+      </c>
+      <c r="C109" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="D109" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="E109" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="F109" s="24"/>
+      <c r="G109" s="21">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="15.75">
+      <c r="A110" s="2">
+        <v>107</v>
+      </c>
+      <c r="B110" s="5">
+        <v>29</v>
+      </c>
+      <c r="C110" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="D110" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="E110" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="F110" s="24"/>
+      <c r="G110" s="21">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="15.75">
+      <c r="A111" s="2">
+        <v>108</v>
+      </c>
+      <c r="B111" s="5">
+        <v>29</v>
+      </c>
+      <c r="C111" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="D111" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="E111" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="F111" s="24"/>
+      <c r="G111" s="21">
+        <v>71000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="15.75">
+      <c r="A112" s="2">
+        <v>109</v>
+      </c>
+      <c r="B112" s="5">
+        <v>29</v>
+      </c>
+      <c r="C112" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="D112" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="E112" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="F112" s="24"/>
+      <c r="G112" s="21">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="15.75">
+      <c r="A113" s="2">
+        <v>110</v>
+      </c>
+      <c r="B113" s="5">
+        <v>29</v>
+      </c>
+      <c r="C113" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="D113" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="E113" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="F113" s="24"/>
+      <c r="G113" s="21">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="15.75">
+      <c r="A114" s="2">
+        <v>111</v>
+      </c>
+      <c r="B114" s="5">
+        <v>29</v>
+      </c>
+      <c r="C114" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="D114" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="E114" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F114" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="G114" s="21">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="15.75">
+      <c r="A115" s="2">
+        <v>112</v>
+      </c>
+      <c r="B115" s="5">
+        <v>29</v>
+      </c>
+      <c r="C115" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="D115" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="E115" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="F115" s="24"/>
+      <c r="G115" s="21">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="15.75">
+      <c r="A116" s="2">
+        <v>113</v>
+      </c>
+      <c r="B116" s="5">
+        <v>30</v>
+      </c>
+      <c r="C116" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="D116" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="E116" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F116" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="G116" s="21">
+        <v>71000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="15.75">
+      <c r="A117" s="2">
+        <v>114</v>
+      </c>
+      <c r="B117" s="5">
+        <v>30</v>
+      </c>
+      <c r="C117" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="D117" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="E117" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F117" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="G117" s="21">
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="15.75">
+      <c r="A118" s="2">
+        <v>115</v>
+      </c>
+      <c r="B118" s="5">
+        <v>30</v>
+      </c>
+      <c r="C118" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="D118" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="E118" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F118" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="G118" s="21">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="15.75">
+      <c r="A119" s="2">
+        <v>116</v>
+      </c>
+      <c r="B119" s="5">
+        <v>30</v>
+      </c>
+      <c r="C119" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="D119" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="E119" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F119" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="G119" s="21">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="15.75">
+      <c r="A120" s="2">
+        <v>117</v>
+      </c>
+      <c r="B120" s="5">
+        <v>30</v>
+      </c>
+      <c r="C120" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="D120" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="E120" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F120" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="G120" s="21">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="15.75">
+      <c r="A121" s="2">
+        <v>118</v>
+      </c>
+      <c r="B121" s="5">
+        <v>30</v>
+      </c>
+      <c r="C121" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="D121" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="E121" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="F121" s="24"/>
+      <c r="G121" s="21">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="15.75">
+      <c r="A122" s="2">
+        <v>119</v>
+      </c>
+      <c r="B122" s="5">
+        <v>30</v>
+      </c>
+      <c r="C122" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="D122" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="E122" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="F122" s="24"/>
+      <c r="G122" s="21">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="15.75">
+      <c r="A123" s="2">
+        <v>120</v>
+      </c>
+      <c r="B123" s="5">
+        <v>31</v>
+      </c>
+      <c r="C123" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="D123" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="E123" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="F123" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="G123" s="21">
+        <v>385000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="15.75">
+      <c r="A124" s="2">
+        <v>121</v>
+      </c>
+      <c r="B124" s="5">
+        <v>31</v>
+      </c>
+      <c r="C124" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="D124" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="E124" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="F124" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="G124" s="21">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="15.75">
+      <c r="A125" s="2">
+        <v>122</v>
+      </c>
+      <c r="B125" s="5">
+        <v>31</v>
+      </c>
+      <c r="C125" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="D125" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="E125" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="F125" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="G125" s="21">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="15.75">
+      <c r="A126" s="2">
+        <v>123</v>
+      </c>
+      <c r="B126" s="5">
+        <v>31</v>
+      </c>
+      <c r="C126" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="D126" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="E126" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="F126" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="G126" s="21">
+        <v>290000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="15.75">
+      <c r="A127" s="2">
+        <v>124</v>
+      </c>
+      <c r="B127" s="5">
+        <v>31</v>
+      </c>
+      <c r="C127" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="D127" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="E127" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="F127" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="G127" s="21">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="15.75">
+      <c r="A128" s="2">
+        <v>125</v>
+      </c>
+      <c r="B128" s="5">
+        <v>31</v>
+      </c>
+      <c r="C128" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="D128" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="E128" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="F128" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="G128" s="21">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="15.75">
+      <c r="A129" s="2">
+        <v>126</v>
+      </c>
+      <c r="B129" s="5">
+        <v>31</v>
+      </c>
+      <c r="C129" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="D129" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="E129" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="F129" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="G129" s="21">
+        <v>236000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="15.75">
+      <c r="A130" s="2">
+        <v>127</v>
+      </c>
+      <c r="B130" s="5">
+        <v>32</v>
+      </c>
+      <c r="C130" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="D130" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="E130" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F130" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="G130" s="21">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="15.75">
+      <c r="A131" s="2">
+        <v>128</v>
+      </c>
+      <c r="B131" s="5">
+        <v>32</v>
+      </c>
+      <c r="C131" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="D131" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="E131" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F131" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="G131" s="21">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="15.75">
+      <c r="A132" s="2">
+        <v>129</v>
+      </c>
+      <c r="B132" s="5">
+        <v>32</v>
+      </c>
+      <c r="C132" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="D132" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="E132" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F132" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="G132" s="21">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="15.75">
+      <c r="A133" s="2">
+        <v>130</v>
+      </c>
+      <c r="B133" s="5">
+        <v>32</v>
+      </c>
+      <c r="C133" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="D133" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="E133" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F133" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="G133" s="21">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="15.75">
+      <c r="A134" s="2">
+        <v>131</v>
+      </c>
+      <c r="B134" s="5">
+        <v>33</v>
+      </c>
+      <c r="C134" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="D134" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="E134" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F134" s="24"/>
+      <c r="G134" s="21">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="15.75">
+      <c r="A135" s="2">
+        <v>132</v>
+      </c>
+      <c r="B135" s="5">
+        <v>33</v>
+      </c>
+      <c r="C135" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="D135" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="E135" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F135" s="24"/>
+      <c r="G135" s="21">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="15.75">
+      <c r="A136" s="2">
+        <v>133</v>
+      </c>
+      <c r="B136" s="5">
+        <v>33</v>
+      </c>
+      <c r="C136" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="D136" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="E136" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F136" s="24"/>
+      <c r="G136" s="21">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="15.75">
+      <c r="A137" s="2">
+        <v>134</v>
+      </c>
+      <c r="B137" s="5">
+        <v>33</v>
+      </c>
+      <c r="C137" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="D137" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="E137" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F137" s="24"/>
+      <c r="G137" s="21">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="15.75">
+      <c r="A138" s="2">
+        <v>135</v>
+      </c>
+      <c r="B138" s="5">
+        <v>33</v>
+      </c>
+      <c r="C138" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="D138" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="E138" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F138" s="24"/>
+      <c r="G138" s="21">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="15.75">
+      <c r="A139" s="2">
+        <v>136</v>
+      </c>
+      <c r="B139" s="5">
+        <v>33</v>
+      </c>
+      <c r="C139" s="31" t="s">
+        <v>389</v>
+      </c>
+      <c r="D139" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="E139" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F139" s="24"/>
+      <c r="G139" s="21">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="15.75">
+      <c r="A140" s="2">
+        <v>137</v>
+      </c>
+      <c r="B140" s="5">
+        <v>33</v>
+      </c>
+      <c r="C140" s="31" t="s">
+        <v>391</v>
+      </c>
+      <c r="D140" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="E140" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F140" s="24"/>
+      <c r="G140" s="21">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="15.75">
+      <c r="A141" s="2">
+        <v>138</v>
+      </c>
+      <c r="B141" s="5">
+        <v>33</v>
+      </c>
+      <c r="C141" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="D141" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="E141" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F141" s="24"/>
+      <c r="G141" s="21">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="15.75">
+      <c r="A142" s="2">
+        <v>139</v>
+      </c>
+      <c r="B142" s="5">
+        <v>33</v>
+      </c>
+      <c r="C142" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="D142" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="E142" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="F142" s="24"/>
+      <c r="G142" s="21">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="15.75">
+      <c r="A143" s="2">
+        <v>140</v>
+      </c>
+      <c r="B143" s="5">
+        <v>33</v>
+      </c>
+      <c r="C143" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="D143" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="E143" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F143" s="24"/>
+      <c r="G143" s="21">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="15.75">
+      <c r="A144" s="2">
+        <v>141</v>
+      </c>
+      <c r="B144" s="5">
+        <v>33</v>
+      </c>
+      <c r="C144" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="D144" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="E144" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F144" s="24"/>
+      <c r="G144" s="21">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="15.75">
+      <c r="A145" s="2">
+        <v>142</v>
+      </c>
+      <c r="B145" s="5">
+        <v>33</v>
+      </c>
+      <c r="C145" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="D145" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="E145" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F145" s="24"/>
+      <c r="G145" s="21">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="15.75">
+      <c r="A146" s="2">
+        <v>143</v>
+      </c>
+      <c r="B146" s="5">
+        <v>33</v>
+      </c>
+      <c r="C146" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="D146" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="E146" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F146" s="24"/>
+      <c r="G146" s="21">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="15.75">
+      <c r="A147" s="2">
+        <v>144</v>
+      </c>
+      <c r="B147" s="5">
+        <v>33</v>
+      </c>
+      <c r="C147" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="D147" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="E147" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F147" s="24"/>
+      <c r="G147" s="21">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="15.75">
+      <c r="A148" s="2">
+        <v>145</v>
+      </c>
+      <c r="B148" s="5">
+        <v>33</v>
+      </c>
+      <c r="C148" s="31" t="s">
+        <v>406</v>
+      </c>
+      <c r="D148" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="E148" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F148" s="24"/>
+      <c r="G148" s="21">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="15.75">
+      <c r="A149" s="2">
+        <v>146</v>
+      </c>
+      <c r="B149" s="5">
+        <v>33</v>
+      </c>
+      <c r="C149" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="D149" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="E149" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F149" s="24"/>
+      <c r="G149" s="21">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="15.75">
+      <c r="A150" s="2">
+        <v>147</v>
+      </c>
+      <c r="B150" s="5">
+        <v>33</v>
+      </c>
+      <c r="C150" s="31" t="s">
+        <v>410</v>
+      </c>
+      <c r="D150" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="E150" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F150" s="24"/>
+      <c r="G150" s="21">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="15.75">
+      <c r="A151" s="2">
+        <v>148</v>
+      </c>
+      <c r="B151" s="5">
+        <v>33</v>
+      </c>
+      <c r="C151" s="31" t="s">
+        <v>412</v>
+      </c>
+      <c r="D151" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="E151" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="F151" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="G151" s="21">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="15.75">
+      <c r="A152" s="2">
+        <v>149</v>
+      </c>
+      <c r="B152" s="5">
+        <v>33</v>
+      </c>
+      <c r="C152" s="31" t="s">
+        <v>415</v>
+      </c>
+      <c r="D152" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="E152" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F152" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="G152" s="21">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="15.75">
+      <c r="A153" s="2">
+        <v>150</v>
+      </c>
+      <c r="B153" s="5">
+        <v>33</v>
+      </c>
+      <c r="C153" s="31" t="s">
+        <v>418</v>
+      </c>
+      <c r="D153" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="E153" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F153" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="G153" s="21">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="15.75">
+      <c r="A154" s="2">
+        <v>151</v>
+      </c>
+      <c r="B154" s="5">
+        <v>33</v>
+      </c>
+      <c r="C154" s="31" t="s">
+        <v>421</v>
+      </c>
+      <c r="D154" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="E154" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F154" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="G154" s="21">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="15.75">
+      <c r="A155" s="2">
+        <v>152</v>
+      </c>
+      <c r="B155" s="5">
+        <v>33</v>
+      </c>
+      <c r="C155" s="31" t="s">
+        <v>424</v>
+      </c>
+      <c r="D155" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="E155" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="F155" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="G155" s="21">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="15.75">
+      <c r="A156" s="2">
+        <v>153</v>
+      </c>
+      <c r="B156" s="5">
+        <v>33</v>
+      </c>
+      <c r="C156" s="31" t="s">
+        <v>428</v>
+      </c>
+      <c r="D156" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="E156" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="F156" s="24" t="s">
+        <v>430</v>
+      </c>
+      <c r="G156" s="21">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="15.75">
+      <c r="A157" s="2">
+        <v>154</v>
+      </c>
+      <c r="B157" s="5">
+        <v>33</v>
+      </c>
+      <c r="C157" s="31" t="s">
+        <v>431</v>
+      </c>
+      <c r="D157" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="E157" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F157" s="24"/>
+      <c r="G157" s="21">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="15.75">
+      <c r="A158" s="2">
+        <v>155</v>
+      </c>
+      <c r="B158" s="5">
+        <v>33</v>
+      </c>
+      <c r="C158" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="D158" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="E158" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F158" s="24" t="s">
+        <v>435</v>
+      </c>
+      <c r="G158" s="21">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="15.75">
+      <c r="A159" s="2">
+        <v>156</v>
+      </c>
+      <c r="B159" s="5">
+        <v>33</v>
+      </c>
+      <c r="C159" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="D159" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="E159" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F159" s="24" t="s">
+        <v>435</v>
+      </c>
+      <c r="G159" s="21">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="15.75">
+      <c r="A160" s="2">
+        <v>157</v>
+      </c>
+      <c r="B160" s="5">
+        <v>33</v>
+      </c>
+      <c r="C160" s="31" t="s">
+        <v>438</v>
+      </c>
+      <c r="D160" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="E160" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="F160" s="24" t="s">
+        <v>441</v>
+      </c>
+      <c r="G160" s="21">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="15.75">
+      <c r="A161" s="2">
+        <v>158</v>
+      </c>
+      <c r="B161" s="5">
+        <v>33</v>
+      </c>
+      <c r="C161" s="31" t="s">
+        <v>442</v>
+      </c>
+      <c r="D161" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="E161" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F161" s="24"/>
+      <c r="G161" s="21">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="15.75">
+      <c r="A162" s="2">
+        <v>159</v>
+      </c>
+      <c r="B162" s="5">
+        <v>34</v>
+      </c>
+      <c r="C162" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="D162" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="E162" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F162" s="20"/>
+      <c r="G162" s="21">
+        <v>205000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="15.75">
+      <c r="A163" s="2">
+        <v>160</v>
+      </c>
+      <c r="B163" s="5">
+        <v>34</v>
+      </c>
+      <c r="C163" s="30" t="s">
+        <v>446</v>
+      </c>
+      <c r="D163" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="E163" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F163" s="20"/>
+      <c r="G163" s="21">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="15.75">
+      <c r="A164" s="2">
+        <v>161</v>
+      </c>
+      <c r="B164" s="5">
+        <v>34</v>
+      </c>
+      <c r="C164" s="30" t="s">
+        <v>448</v>
+      </c>
+      <c r="D164" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="E164" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F164" s="20"/>
+      <c r="G164" s="21">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="15.75">
+      <c r="A165" s="2">
+        <v>162</v>
+      </c>
+      <c r="B165" s="5">
+        <v>34</v>
+      </c>
+      <c r="C165" s="30" t="s">
+        <v>450</v>
+      </c>
+      <c r="D165" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="E165" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F165" s="20"/>
+      <c r="G165" s="21">
+        <v>370000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="15.75">
+      <c r="A166" s="2">
+        <v>163</v>
+      </c>
+      <c r="B166" s="5">
+        <v>34</v>
+      </c>
+      <c r="C166" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="D166" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="E166" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F166" s="20"/>
+      <c r="G166" s="21">
+        <v>310000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="15.75">
+      <c r="A167" s="2">
+        <v>164</v>
+      </c>
+      <c r="B167" s="5">
+        <v>34</v>
+      </c>
+      <c r="C167" s="30" t="s">
+        <v>454</v>
+      </c>
+      <c r="D167" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="E167" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F167" s="20"/>
+      <c r="G167" s="21">
+        <v>310000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="15.75">
+      <c r="A168" s="2">
+        <v>165</v>
+      </c>
+      <c r="B168" s="5">
+        <v>34</v>
+      </c>
+      <c r="C168" s="30" t="s">
+        <v>456</v>
+      </c>
+      <c r="D168" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="E168" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F168" s="20"/>
+      <c r="G168" s="21">
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="15.75">
+      <c r="A169" s="2">
+        <v>166</v>
+      </c>
+      <c r="B169" s="5">
+        <v>34</v>
+      </c>
+      <c r="C169" s="30" t="s">
+        <v>458</v>
+      </c>
+      <c r="D169" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="E169" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F169" s="20"/>
+      <c r="G169" s="21">
+        <v>425000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="15.75">
+      <c r="A170" s="2">
+        <v>167</v>
+      </c>
+      <c r="B170" s="5">
+        <v>34</v>
+      </c>
+      <c r="C170" s="30" t="s">
+        <v>460</v>
+      </c>
+      <c r="D170" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="E170" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F170" s="24"/>
+      <c r="G170" s="21">
+        <v>580000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="15.75">
+      <c r="A171" s="2">
+        <v>168</v>
+      </c>
+      <c r="B171" s="5">
+        <v>35</v>
+      </c>
+      <c r="C171" s="30" t="s">
+        <v>462</v>
+      </c>
+      <c r="D171" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="E171" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F171" s="24"/>
+      <c r="G171" s="21">
+        <v>295000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="15.75">
+      <c r="A172" s="2">
+        <v>169</v>
+      </c>
+      <c r="B172" s="5">
+        <v>36</v>
+      </c>
+      <c r="C172" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="D172" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="E172" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="F172" s="20" t="s">
+        <v>466</v>
+      </c>
+      <c r="G172" s="21">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="15.75">
+      <c r="A173" s="2">
+        <v>170</v>
+      </c>
+      <c r="B173" s="5">
+        <v>36</v>
+      </c>
+      <c r="C173" s="30" t="s">
+        <v>467</v>
+      </c>
+      <c r="D173" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="E173" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="F173" s="20" t="s">
+        <v>466</v>
+      </c>
+      <c r="G173" s="21">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="15.75">
+      <c r="A174" s="2">
+        <v>171</v>
+      </c>
+      <c r="B174" s="5">
+        <v>36</v>
+      </c>
+      <c r="C174" s="30" t="s">
+        <v>469</v>
+      </c>
+      <c r="D174" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="E174" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F174" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="G174" s="21">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="15.75">
+      <c r="A175" s="2">
+        <v>172</v>
+      </c>
+      <c r="B175" s="5">
+        <v>37</v>
+      </c>
+      <c r="C175" s="31" t="s">
+        <v>471</v>
+      </c>
+      <c r="D175" s="22" t="s">
+        <v>472</v>
+      </c>
+      <c r="E175" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F175" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="G175" s="21">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="15.75">
+      <c r="A176" s="2">
+        <v>173</v>
+      </c>
+      <c r="B176" s="5">
+        <v>37</v>
+      </c>
+      <c r="C176" s="31" t="s">
+        <v>474</v>
+      </c>
+      <c r="D176" s="22" t="s">
+        <v>475</v>
+      </c>
+      <c r="E176" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F176" s="24"/>
+      <c r="G176" s="21">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="15.75">
+      <c r="A177" s="2">
+        <v>174</v>
+      </c>
+      <c r="B177" s="5">
+        <v>37</v>
+      </c>
+      <c r="C177" s="31" t="s">
+        <v>476</v>
+      </c>
+      <c r="D177" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="E177" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F177" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="G177" s="21">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="15.75">
+      <c r="A178" s="2">
+        <v>175</v>
+      </c>
+      <c r="B178" s="5">
+        <v>37</v>
+      </c>
+      <c r="C178" s="31" t="s">
+        <v>478</v>
+      </c>
+      <c r="D178" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="E178" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F178" s="24"/>
+      <c r="G178" s="21">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="15.75">
+      <c r="A179" s="2">
+        <v>176</v>
+      </c>
+      <c r="B179" s="5">
+        <v>37</v>
+      </c>
+      <c r="C179" s="31" t="s">
+        <v>480</v>
+      </c>
+      <c r="D179" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="E179" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F179" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="G179" s="21">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="15.75">
+      <c r="A180" s="2">
+        <v>177</v>
+      </c>
+      <c r="B180" s="5">
+        <v>37</v>
+      </c>
+      <c r="C180" s="31" t="s">
+        <v>482</v>
+      </c>
+      <c r="D180" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="E180" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F180" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="G180" s="21">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="15.75">
+      <c r="A181" s="2">
+        <v>178</v>
+      </c>
+      <c r="B181" s="5">
+        <v>37</v>
+      </c>
+      <c r="C181" s="31" t="s">
+        <v>484</v>
+      </c>
+      <c r="D181" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="E181" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F181" s="24"/>
+      <c r="G181" s="21">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="15.75">
+      <c r="A182" s="2">
+        <v>179</v>
+      </c>
+      <c r="B182" s="5">
+        <v>37</v>
+      </c>
+      <c r="C182" s="31" t="s">
+        <v>486</v>
+      </c>
+      <c r="D182" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="E182" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F182" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="G182" s="21">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="15.75">
+      <c r="A183" s="2">
+        <v>180</v>
+      </c>
+      <c r="B183" s="5">
+        <v>37</v>
+      </c>
+      <c r="C183" s="31" t="s">
+        <v>488</v>
+      </c>
+      <c r="D183" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="E183" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F183" s="24"/>
+      <c r="G183" s="21">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="15.75">
+      <c r="A184" s="2">
+        <v>181</v>
+      </c>
+      <c r="B184" s="5">
+        <v>37</v>
+      </c>
+      <c r="C184" s="31" t="s">
+        <v>490</v>
+      </c>
+      <c r="D184" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="E184" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F184" s="24"/>
+      <c r="G184" s="21">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="15.75">
+      <c r="A185" s="2">
+        <v>182</v>
+      </c>
+      <c r="B185" s="5">
+        <v>37</v>
+      </c>
+      <c r="C185" s="31" t="s">
+        <v>492</v>
+      </c>
+      <c r="D185" s="22" t="s">
+        <v>493</v>
+      </c>
+      <c r="E185" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F185" s="24"/>
+      <c r="G185" s="21">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="15.75">
+      <c r="A186" s="2">
+        <v>183</v>
+      </c>
+      <c r="B186" s="5">
+        <v>37</v>
+      </c>
+      <c r="C186" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="D186" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="E186" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="F186" s="24"/>
+      <c r="G186" s="21">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="15.75">
+      <c r="A187" s="2">
+        <v>184</v>
+      </c>
+      <c r="B187" s="5">
+        <v>37</v>
+      </c>
+      <c r="C187" s="31" t="s">
+        <v>497</v>
+      </c>
+      <c r="D187" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="E187" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="F187" s="24"/>
+      <c r="G187" s="21">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="15.75">
+      <c r="A188" s="2">
+        <v>185</v>
+      </c>
+      <c r="B188" s="5">
+        <v>37</v>
+      </c>
+      <c r="C188" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="D188" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="E188" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="F188" s="24"/>
+      <c r="G188" s="21">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="15.75">
+      <c r="A189" s="2">
+        <v>186</v>
+      </c>
+      <c r="B189" s="5">
+        <v>37</v>
+      </c>
+      <c r="C189" s="31" t="s">
+        <v>501</v>
+      </c>
+      <c r="D189" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="E189" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="F189" s="24"/>
+      <c r="G189" s="21">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="15.75">
+      <c r="A190" s="2">
+        <v>187</v>
+      </c>
+      <c r="B190" s="5">
+        <v>37</v>
+      </c>
+      <c r="C190" s="31" t="s">
+        <v>503</v>
+      </c>
+      <c r="D190" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="E190" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="F190" s="24"/>
+      <c r="G190" s="21">
+        <v>270000</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="15.75">
+      <c r="A191" s="2">
+        <v>188</v>
+      </c>
+      <c r="B191" s="5">
+        <v>37</v>
+      </c>
+      <c r="C191" s="31" t="s">
+        <v>505</v>
+      </c>
+      <c r="D191" s="22" t="s">
+        <v>506</v>
+      </c>
+      <c r="E191" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="F191" s="24"/>
+      <c r="G191" s="21">
+        <v>245000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="15.75">
+      <c r="A192" s="2">
+        <v>189</v>
+      </c>
+      <c r="B192" s="5">
+        <v>37</v>
+      </c>
+      <c r="C192" s="31" t="s">
+        <v>507</v>
+      </c>
+      <c r="D192" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="E192" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="F192" s="24"/>
+      <c r="G192" s="21">
+        <v>305000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="15.75">
+      <c r="A193" s="2">
+        <v>190</v>
+      </c>
+      <c r="B193" s="5">
+        <v>38</v>
+      </c>
+      <c r="C193" s="31" t="s">
+        <v>509</v>
+      </c>
+      <c r="D193" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="E193" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F193" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="G193" s="21">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="15.75">
+      <c r="A194" s="2">
+        <v>191</v>
+      </c>
+      <c r="B194" s="5">
+        <v>39</v>
+      </c>
+      <c r="C194" s="31" t="s">
+        <v>511</v>
+      </c>
+      <c r="D194" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="E194" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="F194" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="G194" s="21">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="15.75">
+      <c r="A195" s="2">
+        <v>192</v>
+      </c>
+      <c r="B195" s="5">
+        <v>39</v>
+      </c>
+      <c r="C195" s="31" t="s">
+        <v>514</v>
+      </c>
+      <c r="D195" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="E195" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="F195" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="G195" s="21">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="15.75">
+      <c r="A196" s="2">
+        <v>193</v>
+      </c>
+      <c r="B196" s="5">
+        <v>39</v>
+      </c>
+      <c r="C196" s="31" t="s">
+        <v>516</v>
+      </c>
+      <c r="D196" s="22" t="s">
+        <v>517</v>
+      </c>
+      <c r="E196" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="F196" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="G196" s="21">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="15.75">
+      <c r="A197" s="2">
+        <v>194</v>
+      </c>
+      <c r="B197" s="5">
+        <v>39</v>
+      </c>
+      <c r="C197" s="31" t="s">
+        <v>518</v>
+      </c>
+      <c r="D197" s="22" t="s">
+        <v>519</v>
+      </c>
+      <c r="E197" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="F197" s="24"/>
+      <c r="G197" s="21">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="15.75">
+      <c r="A198" s="2">
+        <v>195</v>
+      </c>
+      <c r="B198" s="5">
+        <v>39</v>
+      </c>
+      <c r="C198" s="31" t="s">
+        <v>520</v>
+      </c>
+      <c r="D198" s="22" t="s">
+        <v>521</v>
+      </c>
+      <c r="E198" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="F198" s="24"/>
+      <c r="G198" s="21">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="15.75">
+      <c r="A199" s="2">
+        <v>196</v>
+      </c>
+      <c r="B199" s="5">
+        <v>39</v>
+      </c>
+      <c r="C199" s="31" t="s">
+        <v>522</v>
+      </c>
+      <c r="D199" s="22" t="s">
+        <v>523</v>
+      </c>
+      <c r="E199" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="F199" s="24"/>
+      <c r="G199" s="21">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="15.75">
+      <c r="A200" s="2">
+        <v>197</v>
+      </c>
+      <c r="B200" s="5">
+        <v>39</v>
+      </c>
+      <c r="C200" s="31" t="s">
+        <v>524</v>
+      </c>
+      <c r="D200" s="22" t="s">
+        <v>525</v>
+      </c>
+      <c r="E200" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="F200" s="24"/>
+      <c r="G200" s="21">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="15.75">
+      <c r="A201" s="2">
+        <v>198</v>
+      </c>
+      <c r="B201" s="5">
+        <v>39</v>
+      </c>
+      <c r="C201" s="31" t="s">
+        <v>526</v>
+      </c>
+      <c r="D201" s="22" t="s">
+        <v>527</v>
+      </c>
+      <c r="E201" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="F201" s="24"/>
+      <c r="G201" s="21">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="15.75">
+      <c r="A202" s="2">
+        <v>199</v>
+      </c>
+      <c r="B202" s="5">
+        <v>40</v>
+      </c>
+      <c r="C202" s="31" t="s">
+        <v>528</v>
+      </c>
+      <c r="D202" s="22" t="s">
+        <v>529</v>
+      </c>
+      <c r="E202" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F202" s="24"/>
+      <c r="G202" s="21">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="15.75">
+      <c r="A203" s="2">
+        <v>200</v>
+      </c>
+      <c r="B203" s="5">
+        <v>40</v>
+      </c>
+      <c r="C203" s="31" t="s">
+        <v>530</v>
+      </c>
+      <c r="D203" s="22" t="s">
+        <v>531</v>
+      </c>
+      <c r="E203" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F203" s="24"/>
+      <c r="G203" s="21">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="15.75">
+      <c r="A204" s="2">
+        <v>201</v>
+      </c>
+      <c r="B204" s="5">
+        <v>40</v>
+      </c>
+      <c r="C204" s="31" t="s">
+        <v>532</v>
+      </c>
+      <c r="D204" s="22" t="s">
+        <v>533</v>
+      </c>
+      <c r="E204" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="F204" s="24"/>
+      <c r="G204" s="21">
+        <v>1850000</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="15.75">
+      <c r="A205" s="2">
+        <v>202</v>
+      </c>
+      <c r="B205" s="5">
+        <v>40</v>
+      </c>
+      <c r="C205" s="31" t="s">
+        <v>534</v>
+      </c>
+      <c r="D205" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="E205" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F205" s="24" t="s">
+        <v>536</v>
+      </c>
+      <c r="G205" s="21">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="15.75">
+      <c r="A206" s="2">
+        <v>203</v>
+      </c>
+      <c r="B206" s="5">
+        <v>40</v>
+      </c>
+      <c r="C206" s="31" t="s">
+        <v>537</v>
+      </c>
+      <c r="D206" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="E206" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F206" s="24"/>
+      <c r="G206" s="21">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="15.75">
+      <c r="A207" s="2">
+        <v>204</v>
+      </c>
+      <c r="B207" s="5">
+        <v>40</v>
+      </c>
+      <c r="C207" s="31" t="s">
+        <v>539</v>
+      </c>
+      <c r="D207" s="22" t="s">
+        <v>540</v>
+      </c>
+      <c r="E207" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F207" s="24"/>
+      <c r="G207" s="21">
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="15.75">
+      <c r="A208" s="2">
+        <v>205</v>
+      </c>
+      <c r="B208" s="5">
+        <v>40</v>
+      </c>
+      <c r="C208" s="31" t="s">
+        <v>541</v>
+      </c>
+      <c r="D208" s="22" t="s">
+        <v>542</v>
+      </c>
+      <c r="E208" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F208" s="24" t="s">
+        <v>536</v>
+      </c>
+      <c r="G208" s="21">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="15.75">
+      <c r="A209" s="2">
+        <v>206</v>
+      </c>
+      <c r="B209" s="5">
+        <v>40</v>
+      </c>
+      <c r="C209" s="31" t="s">
+        <v>543</v>
+      </c>
+      <c r="D209" s="22" t="s">
+        <v>544</v>
+      </c>
+      <c r="E209" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F209" s="24" t="s">
+        <v>536</v>
+      </c>
+      <c r="G209" s="21">
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="15.75">
+      <c r="A210" s="2">
+        <v>207</v>
+      </c>
+      <c r="B210" s="5">
+        <v>40</v>
+      </c>
+      <c r="C210" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="D210" s="22" t="s">
+        <v>546</v>
+      </c>
+      <c r="E210" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F210" s="24"/>
+      <c r="G210" s="21">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="15.75">
+      <c r="A211" s="2">
+        <v>208</v>
+      </c>
+      <c r="B211" s="5">
+        <v>40</v>
+      </c>
+      <c r="C211" s="31" t="s">
+        <v>547</v>
+      </c>
+      <c r="D211" s="22" t="s">
+        <v>548</v>
+      </c>
+      <c r="E211" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F211" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="G211" s="21">
+        <v>78000</v>
       </c>
     </row>
   </sheetData>
@@ -1593,242 +6909,888 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.875" style="20" customWidth="1"/>
-    <col min="2" max="2" width="16.75" style="21" customWidth="1"/>
-    <col min="3" max="3" width="44.75" style="20" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="20"/>
+    <col min="1" max="1" width="13.875" style="26" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="8" customWidth="1"/>
+    <col min="3" max="3" width="67" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9" style="8"/>
+    <col min="5" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:4" ht="25.5" customHeight="1">
+      <c r="A1" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+    </row>
+    <row r="2" spans="1:4" ht="25.5">
+      <c r="A2" s="17"/>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:4" s="9" customFormat="1" ht="19.5">
+      <c r="A3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="1:4" s="9" customFormat="1" ht="19.5">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="1:4" s="9" customFormat="1" ht="19.5">
+      <c r="A5" s="10">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11">
+        <v>0</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:4" s="9" customFormat="1" ht="19.5">
+      <c r="A6" s="10">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11">
+        <v>0</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="1:4" s="9" customFormat="1" ht="19.5">
+      <c r="A7" s="10">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11">
+        <v>0</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:4" s="9" customFormat="1" ht="19.5">
+      <c r="A8" s="10">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" spans="1:4" s="9" customFormat="1" ht="19.5">
+      <c r="A9" s="10">
+        <v>6</v>
+      </c>
+      <c r="B9" s="11">
+        <v>0</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" spans="1:4" s="9" customFormat="1" ht="19.5">
+      <c r="A10" s="10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="11">
+        <v>0</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="25"/>
+    </row>
+    <row r="11" spans="1:4" s="9" customFormat="1" ht="19.5">
+      <c r="A11" s="10">
+        <v>8</v>
+      </c>
+      <c r="B11" s="11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="25"/>
+    </row>
+    <row r="12" spans="1:4" s="9" customFormat="1" ht="19.5">
+      <c r="A12" s="10">
+        <v>9</v>
+      </c>
+      <c r="B12" s="11">
+        <v>0</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13" spans="1:4" s="9" customFormat="1" ht="19.5">
+      <c r="A13" s="10">
+        <v>10</v>
+      </c>
+      <c r="B13" s="11">
+        <v>0</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="25"/>
+    </row>
+    <row r="14" spans="1:4" s="9" customFormat="1" ht="19.5">
+      <c r="A14" s="10">
+        <v>11</v>
+      </c>
+      <c r="B14" s="11">
+        <v>0</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="25"/>
+    </row>
+    <row r="15" spans="1:4" s="9" customFormat="1" ht="19.5">
+      <c r="A15" s="10">
+        <v>12</v>
+      </c>
+      <c r="B15" s="11">
+        <v>0</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="25"/>
+    </row>
+    <row r="16" spans="1:4" s="9" customFormat="1" ht="19.5">
+      <c r="A16" s="10">
+        <v>13</v>
+      </c>
+      <c r="B16" s="11">
+        <v>0</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="25"/>
+    </row>
+    <row r="17" spans="1:4" s="9" customFormat="1" ht="19.5">
+      <c r="A17" s="10">
+        <v>14</v>
+      </c>
+      <c r="B17" s="11">
+        <v>0</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="25"/>
+    </row>
+    <row r="18" spans="1:4" s="9" customFormat="1" ht="19.5">
+      <c r="A18" s="10">
+        <v>15</v>
+      </c>
+      <c r="B18" s="11">
+        <v>0</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="25"/>
+    </row>
+    <row r="19" spans="1:4" s="9" customFormat="1" ht="19.5">
+      <c r="A19" s="10">
+        <v>16</v>
+      </c>
+      <c r="B19" s="11">
+        <v>0</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="25"/>
+    </row>
+    <row r="20" spans="1:4" s="9" customFormat="1" ht="19.5">
+      <c r="A20" s="10">
+        <v>17</v>
+      </c>
+      <c r="B20" s="11">
+        <v>0</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="25"/>
+    </row>
+    <row r="21" spans="1:4" s="9" customFormat="1" ht="19.5">
+      <c r="A21" s="10">
+        <v>18</v>
+      </c>
+      <c r="B21" s="11">
+        <v>0</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="25"/>
+    </row>
+    <row r="22" spans="1:4" s="9" customFormat="1" ht="19.5">
+      <c r="A22" s="10">
+        <v>19</v>
+      </c>
+      <c r="B22" s="11">
+        <v>0</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="25"/>
+    </row>
+    <row r="23" spans="1:4" s="9" customFormat="1" ht="19.5">
+      <c r="A23" s="13">
+        <v>20</v>
+      </c>
+      <c r="B23" s="11">
+        <v>1</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="1:4" s="9" customFormat="1" ht="19.5">
+      <c r="A24" s="13">
+        <v>21</v>
+      </c>
+      <c r="B24" s="11">
+        <v>1</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="1:4" s="9" customFormat="1" ht="19.5">
+      <c r="A25" s="13">
+        <v>22</v>
+      </c>
+      <c r="B25" s="11">
+        <v>1</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="1:4" s="9" customFormat="1" ht="19.5">
+      <c r="A26" s="10">
+        <v>23</v>
+      </c>
+      <c r="B26" s="11">
+        <v>1</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="1:4" s="9" customFormat="1" ht="19.5">
+      <c r="A27" s="13">
+        <v>24</v>
+      </c>
+      <c r="B27" s="11">
+        <v>2</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="1:4" s="9" customFormat="1" ht="19.5">
+      <c r="A28" s="13">
+        <v>25</v>
+      </c>
+      <c r="B28" s="11">
+        <v>3</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" spans="1:4" s="9" customFormat="1" ht="19.5">
+      <c r="A29" s="13">
+        <v>26</v>
+      </c>
+      <c r="B29" s="11">
+        <v>3</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="14"/>
+    </row>
+    <row r="30" spans="1:4" s="9" customFormat="1" ht="19.5">
+      <c r="A30" s="10">
+        <v>27</v>
+      </c>
+      <c r="B30" s="11">
+        <v>3</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="14"/>
+    </row>
+    <row r="31" spans="1:4" s="9" customFormat="1" ht="19.5">
+      <c r="A31" s="13">
+        <v>28</v>
+      </c>
+      <c r="B31" s="11">
+        <v>3</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="14"/>
+    </row>
+    <row r="32" spans="1:4" s="9" customFormat="1" ht="19.5">
+      <c r="A32" s="13">
+        <v>29</v>
+      </c>
+      <c r="B32" s="11">
+        <v>3</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="14"/>
+    </row>
+    <row r="33" spans="1:4" s="9" customFormat="1" ht="19.5">
+      <c r="A33" s="13">
+        <v>30</v>
+      </c>
+      <c r="B33" s="11">
+        <v>3</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="14"/>
+    </row>
+    <row r="34" spans="1:4" s="9" customFormat="1" ht="19.5">
+      <c r="A34" s="10">
+        <v>31</v>
+      </c>
+      <c r="B34" s="11">
+        <v>3</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="14"/>
+    </row>
+    <row r="35" spans="1:4" ht="19.5">
+      <c r="A35" s="13">
+        <v>32</v>
+      </c>
+      <c r="B35" s="11">
+        <v>3</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="19.5">
+      <c r="A36" s="13">
+        <v>33</v>
+      </c>
+      <c r="B36" s="11">
+        <v>3</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="19.5">
+      <c r="A37" s="13">
+        <v>34</v>
+      </c>
+      <c r="B37" s="11">
+        <v>3</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="19.5">
+      <c r="A38" s="10">
+        <v>35</v>
+      </c>
+      <c r="B38" s="11">
+        <v>3</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="19.5">
+      <c r="A39" s="13">
+        <v>36</v>
+      </c>
+      <c r="B39" s="11">
+        <v>3</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-    </row>
-    <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
-      <c r="C2" s="31"/>
-    </row>
-    <row r="3" spans="1:3" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="18" t="s">
+    </row>
+    <row r="40" spans="1:4" ht="19.5">
+      <c r="A40" s="13">
+        <v>37</v>
+      </c>
+      <c r="B40" s="11">
+        <v>3</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="19.5">
+      <c r="A41" s="13">
+        <v>38</v>
+      </c>
+      <c r="B41" s="11">
+        <v>3</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="19.5">
+      <c r="A42" s="10">
+        <v>39</v>
+      </c>
+      <c r="B42" s="11">
+        <v>3</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="19.5">
+      <c r="A43" s="13">
+        <v>40</v>
+      </c>
+      <c r="B43" s="11">
+        <v>3</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="19.5">
+      <c r="A44" s="13">
+        <v>41</v>
+      </c>
+      <c r="B44" s="11">
+        <v>3</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="19.5">
+      <c r="A45" s="10">
+        <v>42</v>
+      </c>
+      <c r="B45" s="11">
+        <v>4</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="19.5">
+      <c r="A46" s="13">
+        <v>43</v>
+      </c>
+      <c r="B46" s="11">
+        <v>4</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="19.5">
+      <c r="A47" s="13">
+        <v>44</v>
+      </c>
+      <c r="B47" s="11">
+        <v>4</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="19.5">
+      <c r="A48" s="10">
+        <v>45</v>
+      </c>
+      <c r="B48" s="11">
+        <v>4</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="19.5">
+      <c r="A49" s="13">
+        <v>46</v>
+      </c>
+      <c r="B49" s="11">
+        <v>4</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="19.5">
+      <c r="A50" s="13">
+        <v>47</v>
+      </c>
+      <c r="B50" s="11">
+        <v>4</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="19.5">
+      <c r="A51" s="10">
+        <v>48</v>
+      </c>
+      <c r="B51" s="11">
+        <v>4</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="19.5">
+      <c r="A52" s="13">
+        <v>49</v>
+      </c>
+      <c r="B52" s="11">
+        <v>4</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="19.5">
+      <c r="A53" s="13">
+        <v>50</v>
+      </c>
+      <c r="B53" s="11">
+        <v>5</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="19.5">
+      <c r="A54" s="10">
+        <v>51</v>
+      </c>
+      <c r="B54" s="11">
+        <v>5</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="19.5">
+      <c r="A55" s="13">
+        <v>52</v>
+      </c>
+      <c r="B55" s="11">
+        <v>5</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="19.5">
+      <c r="A56" s="13">
+        <v>53</v>
+      </c>
+      <c r="B56" s="11">
+        <v>5</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="19.5">
+      <c r="A57" s="10">
+        <v>54</v>
+      </c>
+      <c r="B57" s="11">
+        <v>5</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="19.5">
+      <c r="A58" s="13">
+        <v>55</v>
+      </c>
+      <c r="B58" s="11">
+        <v>5</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="19.5">
+      <c r="A59" s="13">
+        <v>56</v>
+      </c>
+      <c r="B59" s="11">
+        <v>5</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="19.5">
+      <c r="A60" s="10">
+        <v>57</v>
+      </c>
+      <c r="B60" s="11">
+        <v>5</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="19.5">
+      <c r="A61" s="13">
+        <v>58</v>
+      </c>
+      <c r="B61" s="11">
+        <v>5</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="19.5">
+      <c r="A62" s="13">
+        <v>59</v>
+      </c>
+      <c r="B62" s="11">
+        <v>5</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="19.5">
+      <c r="A63" s="10">
+        <v>60</v>
+      </c>
+      <c r="B63" s="11">
+        <v>5</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="19.5">
+      <c r="A64" s="13">
+        <v>61</v>
+      </c>
+      <c r="B64" s="11">
+        <v>5</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="19.5">
+      <c r="A65" s="13">
+        <v>62</v>
+      </c>
+      <c r="B65" s="11">
+        <v>5</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="19.5">
+      <c r="A66" s="10">
+        <v>63</v>
+      </c>
+      <c r="B66" s="11">
+        <v>5</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="19.5">
+      <c r="A67" s="13">
+        <v>64</v>
+      </c>
+      <c r="B67" s="11">
+        <v>5</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="19.5">
+      <c r="A68" s="13">
+        <v>65</v>
+      </c>
+      <c r="B68" s="11">
+        <v>5</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="19.5">
+      <c r="A69" s="10">
+        <v>66</v>
+      </c>
+      <c r="B69" s="11">
+        <v>5</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="19.5">
+      <c r="A70" s="13">
+        <v>67</v>
+      </c>
+      <c r="B70" s="11">
+        <v>5</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="19.5">
+      <c r="A71" s="13">
+        <v>68</v>
+      </c>
+      <c r="B71" s="11">
+        <v>5</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="19.5">
+      <c r="A72" s="10">
+        <v>69</v>
+      </c>
+      <c r="B72" s="11">
+        <v>5</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="19.5">
+      <c r="A73" s="13">
+        <v>70</v>
+      </c>
+      <c r="B73" s="11">
+        <v>5</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="19.5">
+      <c r="A74" s="13">
+        <v>71</v>
+      </c>
+      <c r="B74" s="11">
+        <v>5</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="19.5">
+      <c r="A75" s="10">
+        <v>72</v>
+      </c>
+      <c r="B75" s="11">
+        <v>5</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="19.5">
+      <c r="A76" s="13">
+        <v>73</v>
+      </c>
+      <c r="B76" s="11">
+        <v>5</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="19.5">
+      <c r="A77" s="13">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="23">
-        <v>1</v>
-      </c>
-      <c r="B4" s="25">
-        <v>0</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="23">
-        <v>2</v>
-      </c>
-      <c r="B5" s="25">
-        <v>0</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="23">
-        <v>3</v>
-      </c>
-      <c r="B6" s="25">
-        <v>1</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="23">
-        <v>4</v>
-      </c>
-      <c r="B7" s="25">
-        <v>1</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
+      <c r="B77" s="11">
         <v>5</v>
       </c>
-      <c r="B8" s="25">
-        <v>1</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="23">
-        <v>6</v>
-      </c>
-      <c r="B9" s="25">
-        <v>2</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="23">
-        <v>7</v>
-      </c>
-      <c r="B10" s="25">
-        <v>2</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="23">
-        <v>8</v>
-      </c>
-      <c r="B11" s="25">
-        <v>3</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="24"/>
-    </row>
-    <row r="13" spans="1:3" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="24"/>
-    </row>
-    <row r="14" spans="1:3" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="24"/>
-    </row>
-    <row r="15" spans="1:3" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="24"/>
-    </row>
-    <row r="16" spans="1:3" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="24"/>
-    </row>
-    <row r="17" spans="1:3" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="24"/>
-    </row>
-    <row r="18" spans="1:3" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-    </row>
-    <row r="19" spans="1:3" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-    </row>
-    <row r="20" spans="1:3" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="27"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-    </row>
-    <row r="21" spans="1:3" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-    </row>
-    <row r="22" spans="1:3" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-    </row>
-    <row r="23" spans="1:3" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-    </row>
-    <row r="24" spans="1:3" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="27"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-    </row>
-    <row r="25" spans="1:3" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="27"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-    </row>
-    <row r="26" spans="1:3" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="27"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-    </row>
-    <row r="27" spans="1:3" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="27"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-    </row>
-    <row r="28" spans="1:3" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="27"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
-    </row>
-    <row r="29" spans="1:3" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="27"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="26"/>
-    </row>
-    <row r="30" spans="1:3" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="27"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-    </row>
-    <row r="31" spans="1:3" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="27"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
-    </row>
-    <row r="32" spans="1:3" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="27"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-    </row>
-    <row r="33" spans="1:3" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="27"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-    </row>
-    <row r="34" spans="1:3" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B34" s="28"/>
+      <c r="C77" s="12" t="s">
+        <v>549</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
